--- a/每週買賣報表/分年資料.xlsx
+++ b/每週買賣報表/分年資料.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1146"/>
+  <dimension ref="A1:B1147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -999,7 +999,7 @@
         <v>37785</v>
       </c>
       <c r="B77">
-        <v>131.4990447070073</v>
+        <v>131.4200563010136</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>37792</v>
       </c>
       <c r="B78">
-        <v>188.0457029696918</v>
+        <v>188.1429237504563</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>37799</v>
       </c>
       <c r="B79">
-        <v>-92.54335044528302</v>
+        <v>-92.47146947346444</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>37806</v>
       </c>
       <c r="B80">
-        <v>200.0045577755881</v>
+        <v>199.9618042471645</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>37813</v>
       </c>
       <c r="B81">
-        <v>221.4966507798094</v>
+        <v>221.5217881229544</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>37820</v>
       </c>
       <c r="B82">
-        <v>134.2481202695147</v>
+        <v>134.109484791797</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>37827</v>
       </c>
       <c r="B83">
-        <v>156.4493147271266</v>
+        <v>156.5224077228838</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>37841</v>
       </c>
       <c r="B85">
-        <v>-132.0021706419172</v>
+        <v>-134.1970215272853</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>37848</v>
       </c>
       <c r="B86">
-        <v>8.093105686385563</v>
+        <v>21.30833872975345</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>37855</v>
       </c>
       <c r="B87">
-        <v>216.847340887395</v>
+        <v>229.0037003064084</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>37862</v>
       </c>
       <c r="B88">
-        <v>-60.3278635164129</v>
+        <v>-67.73792739163412</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>37869</v>
       </c>
       <c r="B89">
-        <v>-118.6383381587341</v>
+        <v>-123.0331386317336</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>37876</v>
       </c>
       <c r="B90">
-        <v>-135.4139448246695</v>
+        <v>-142.8417904087997</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>37883</v>
       </c>
       <c r="B91">
-        <v>218.8478178316359</v>
+        <v>236.6230324325679</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>37890</v>
       </c>
       <c r="B92">
-        <v>40.01293102704005</v>
+        <v>30.00447105173363</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>37897</v>
       </c>
       <c r="B93">
-        <v>179.7841372297259</v>
+        <v>193.6776497936068</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>37904</v>
       </c>
       <c r="B94">
-        <v>287.008778410031</v>
+        <v>307.7794743695786</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>37911</v>
       </c>
       <c r="B95">
-        <v>-18.35360414183232</v>
+        <v>-29.84307647695773</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>37918</v>
       </c>
       <c r="B96">
-        <v>24.04269449167756</v>
+        <v>30.97384469016104</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>37925</v>
       </c>
       <c r="B97">
-        <v>80.03504858550755</v>
+        <v>85.47571215411733</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>37932</v>
       </c>
       <c r="B98">
-        <v>157.430818788627</v>
+        <v>162.1620460000011</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>37939</v>
       </c>
       <c r="B99">
-        <v>153.7187949200385</v>
+        <v>181.1388086102758</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>37946</v>
       </c>
       <c r="B100">
-        <v>-94.79293383565255</v>
+        <v>-120.9449811762692</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>37953</v>
       </c>
       <c r="B101">
-        <v>-30.25468185732899</v>
+        <v>-25.81057386037146</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>37960</v>
       </c>
       <c r="B102">
-        <v>121.444407345003</v>
+        <v>128.3431459230643</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>37967</v>
       </c>
       <c r="B103">
-        <v>8.202873281762834</v>
+        <v>-0.3123855005705458</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>37974</v>
       </c>
       <c r="B104">
-        <v>-17.24966322025585</v>
+        <v>-24.15335911799127</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>37981</v>
       </c>
       <c r="B105">
-        <v>85.70763270862211</v>
+        <v>88.81313146091762</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>37988</v>
       </c>
       <c r="B106">
-        <v>83.59304639715103</v>
+        <v>90.03959298654807</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>37995</v>
       </c>
       <c r="B107">
-        <v>165.3683076395246</v>
+        <v>169.0425550131072</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>38002</v>
       </c>
       <c r="B108">
-        <v>-2.255788881083513</v>
+        <v>1.572894120909218</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>38016</v>
       </c>
       <c r="B110">
-        <v>224.8369690708717</v>
+        <v>264.1029840254064</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>38023</v>
       </c>
       <c r="B111">
-        <v>156.7555153080411</v>
+        <v>198.5869782451233</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>38030</v>
       </c>
       <c r="B112">
-        <v>157.0188182856427</v>
+        <v>174.0640030321863</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>38037</v>
       </c>
       <c r="B113">
-        <v>187.2820901770213</v>
+        <v>201.7173436565224</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>38044</v>
       </c>
       <c r="B114">
-        <v>71.61980102643824</v>
+        <v>73.53017333163442</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>38051</v>
       </c>
       <c r="B115">
-        <v>145.2012947235166</v>
+        <v>147.6730101495495</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>38058</v>
       </c>
       <c r="B116">
-        <v>76.13676082132825</v>
+        <v>73.62338349060683</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>38065</v>
       </c>
       <c r="B117">
-        <v>-6.316351114949319</v>
+        <v>-10.80650650297767</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>38072</v>
       </c>
       <c r="B118">
-        <v>-502.314569939088</v>
+        <v>-532.1761488553274</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>38079</v>
       </c>
       <c r="B119">
-        <v>137.093669878118</v>
+        <v>137.048130187633</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>38086</v>
       </c>
       <c r="B120">
-        <v>-60.92944710427873</v>
+        <v>-63.55160794838898</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>38093</v>
       </c>
       <c r="B121">
-        <v>36.1193778581393</v>
+        <v>39.53975436089308</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>38100</v>
       </c>
       <c r="B122">
-        <v>-90.16018679028477</v>
+        <v>-86.09900737970958</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>38107</v>
       </c>
       <c r="B123">
-        <v>-256.6536109591225</v>
+        <v>-263.7887193596593</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>38114</v>
       </c>
       <c r="B124">
-        <v>-68.55804812781247</v>
+        <v>-68.58782225512253</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>38121</v>
       </c>
       <c r="B125">
-        <v>11.03611088741277</v>
+        <v>11.09759032793766</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>38128</v>
       </c>
       <c r="B126">
-        <v>-76.19142326989186</v>
+        <v>-76.27915595222328</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>38135</v>
       </c>
       <c r="B127">
-        <v>-12.28157338836938</v>
+        <v>-12.19455415191587</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>38142</v>
       </c>
       <c r="B128">
-        <v>-101.3538793332129</v>
+        <v>-105.3166149060962</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>38149</v>
       </c>
       <c r="B129">
-        <v>32.41587029535208</v>
+        <v>28.75794900372746</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>38184</v>
       </c>
       <c r="B134">
-        <v>-22.53068860313118</v>
+        <v>-23.67512395568163</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>38191</v>
       </c>
       <c r="B135">
-        <v>-5.348608128277123</v>
+        <v>-7.104674539515949</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>38198</v>
       </c>
       <c r="B136">
-        <v>47.64084567221761</v>
+        <v>47.50995561986159</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>38205</v>
       </c>
       <c r="B137">
-        <v>-26.39154801827117</v>
+        <v>-26.26031442247064</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>38212</v>
       </c>
       <c r="B138">
-        <v>-31.60305452175919</v>
+        <v>-31.73394457411521</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>38359</v>
       </c>
       <c r="B159">
-        <v>-143.2269953728126</v>
+        <v>-143.2269953728127</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>38401</v>
       </c>
       <c r="B165">
-        <v>262.4104093622079</v>
+        <v>262.4784877986792</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>38408</v>
       </c>
       <c r="B166">
-        <v>110.3114272182235</v>
+        <v>110.2889843315008</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>38415</v>
       </c>
       <c r="B167">
-        <v>104.4482719159145</v>
+        <v>104.4847350767546</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>38422</v>
       </c>
       <c r="B168">
-        <v>343.4822641602</v>
+        <v>343.434754599393</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>38429</v>
       </c>
       <c r="B169">
-        <v>-392.3091503981124</v>
+        <v>-392.3394530410174</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>38436</v>
       </c>
       <c r="B170">
-        <v>221.6026440048044</v>
+        <v>221.6038594868629</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>38443</v>
       </c>
       <c r="B171">
-        <v>-2.435420199668158</v>
+        <v>-2.402209618322473</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>38450</v>
       </c>
       <c r="B172">
-        <v>71.39074539207697</v>
+        <v>71.41389694494978</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>38457</v>
       </c>
       <c r="B173">
-        <v>-6.494267246178708</v>
+        <v>-6.515855663182293</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>38464</v>
       </c>
       <c r="B174">
-        <v>-385.5151258515445</v>
+        <v>-385.4795959836331</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>38471</v>
       </c>
       <c r="B175">
-        <v>-83.17510849016131</v>
+        <v>-83.17451314088105</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>38478</v>
       </c>
       <c r="B176">
-        <v>12.45778889173859</v>
+        <v>12.48535354078662</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>38485</v>
       </c>
       <c r="B177">
-        <v>16.29962836025847</v>
+        <v>16.24953450709462</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>38492</v>
       </c>
       <c r="B178">
-        <v>13.83141567635945</v>
+        <v>13.80211733750713</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>38499</v>
       </c>
       <c r="B179">
-        <v>-2.452361805672208</v>
+        <v>-2.379324014130669</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>38506</v>
       </c>
       <c r="B180">
-        <v>156.4707461583431</v>
+        <v>156.4645262858505</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>38513</v>
       </c>
       <c r="B181">
-        <v>231.8959238863665</v>
+        <v>231.84644198785</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>38520</v>
       </c>
       <c r="B182">
-        <v>84.31239162351183</v>
+        <v>85.52335294724915</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>38527</v>
       </c>
       <c r="B183">
-        <v>192.1250012873167</v>
+        <v>196.57936916735</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>38534</v>
       </c>
       <c r="B184">
-        <v>226.1149032732729</v>
+        <v>225.9027980067511</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>38541</v>
       </c>
       <c r="B185">
-        <v>169.0400446604115</v>
+        <v>171.9125531833672</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>38548</v>
       </c>
       <c r="B186">
-        <v>484.352184248023</v>
+        <v>494.3271527950013</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>38555</v>
       </c>
       <c r="B187">
-        <v>-28.54125181065408</v>
+        <v>-29.89358285045106</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>38562</v>
       </c>
       <c r="B188">
-        <v>230.5679140208629</v>
+        <v>241.3752017627318</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>38569</v>
       </c>
       <c r="B189">
-        <v>-17.63249657164214</v>
+        <v>-24.62884464261764</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>38576</v>
       </c>
       <c r="B190">
-        <v>-23.19460229004271</v>
+        <v>-29.68340608666442</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>38583</v>
       </c>
       <c r="B191">
-        <v>-211.7154070366449</v>
+        <v>-238.4768698384079</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>38590</v>
       </c>
       <c r="B192">
-        <v>27.30620797633288</v>
+        <v>20.51290408498776</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>38597</v>
       </c>
       <c r="B193">
-        <v>-99.89362958086787</v>
+        <v>-93.54772717912127</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>38604</v>
       </c>
       <c r="B194">
-        <v>94.78716160892496</v>
+        <v>96.40016730459971</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>38611</v>
       </c>
       <c r="B195">
-        <v>-40.66591399127629</v>
+        <v>-44.75880611252694</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>38618</v>
       </c>
       <c r="B196">
-        <v>49.99534502703182</v>
+        <v>50.22337806744122</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>38625</v>
       </c>
       <c r="B197">
-        <v>78.36037472262615</v>
+        <v>89.31147895811586</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>38632</v>
       </c>
       <c r="B198">
-        <v>113.9876239804033</v>
+        <v>111.8099787106688</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>38639</v>
       </c>
       <c r="B199">
-        <v>14.89335025299632</v>
+        <v>14.68001873766304</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>38646</v>
       </c>
       <c r="B200">
-        <v>93.4594105817331</v>
+        <v>94.82676445130673</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>38653</v>
       </c>
       <c r="B201">
-        <v>-120.7758988183754</v>
+        <v>-123.4447219396856</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>38660</v>
       </c>
       <c r="B202">
-        <v>83.47992071873665</v>
+        <v>84.24192570592842</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>38667</v>
       </c>
       <c r="B203">
-        <v>8.341749908843035</v>
+        <v>10.42383305998701</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>38674</v>
       </c>
       <c r="B204">
-        <v>70.51052166616296</v>
+        <v>68.63079086381096</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>38681</v>
       </c>
       <c r="B205">
-        <v>53.62347534910847</v>
+        <v>48.0106075875041</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>38688</v>
       </c>
       <c r="B206">
-        <v>104.5980946083893</v>
+        <v>106.0121217577105</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>38695</v>
       </c>
       <c r="B207">
-        <v>234.8063298576847</v>
+        <v>235.5508296323095</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>38702</v>
       </c>
       <c r="B208">
-        <v>314.5798158894034</v>
+        <v>323.8326223048495</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>38709</v>
       </c>
       <c r="B209">
-        <v>310.5786280938902</v>
+        <v>341.3856366683925</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>38716</v>
       </c>
       <c r="B210">
-        <v>234.1067148348124</v>
+        <v>237.5172890757815</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>38723</v>
       </c>
       <c r="B211">
-        <v>456.2817962588155</v>
+        <v>472.6523477344955</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>38730</v>
       </c>
       <c r="B212">
-        <v>-255.1220843761167</v>
+        <v>-269.5496886675254</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>38737</v>
       </c>
       <c r="B213">
-        <v>-505.1628816617792</v>
+        <v>-517.8064842031717</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>38744</v>
       </c>
       <c r="B214">
-        <v>0.7538168200982538</v>
+        <v>1.545506749700111</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>38751</v>
       </c>
       <c r="B215">
-        <v>150.2688404778232</v>
+        <v>163.3658053772122</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>38758</v>
       </c>
       <c r="B216">
-        <v>-97.35559630115669</v>
+        <v>-106.9412224390982</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>38765</v>
       </c>
       <c r="B217">
-        <v>185.4167070907333</v>
+        <v>185.9392670270334</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>38772</v>
       </c>
       <c r="B218">
-        <v>-361.597082737809</v>
+        <v>-390.9056758933024</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>38779</v>
       </c>
       <c r="B219">
-        <v>67.32650418222008</v>
+        <v>67.4098472076173</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>38786</v>
       </c>
       <c r="B220">
-        <v>14.1863793692685</v>
+        <v>20.57912141581273</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>38793</v>
       </c>
       <c r="B221">
-        <v>211.1214175036534</v>
+        <v>228.1181000172526</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>38800</v>
       </c>
       <c r="B222">
-        <v>-238.7988459197762</v>
+        <v>-257.6583688647391</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>38807</v>
       </c>
       <c r="B223">
-        <v>308.9127742878661</v>
+        <v>318.3785825524287</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>38814</v>
       </c>
       <c r="B224">
-        <v>163.4007325770393</v>
+        <v>175.6345571798759</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>38821</v>
       </c>
       <c r="B225">
-        <v>461.6822189252938</v>
+        <v>525.1549180362013</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>38828</v>
       </c>
       <c r="B226">
-        <v>188.8063728872032</v>
+        <v>210.9482793593213</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>38835</v>
       </c>
       <c r="B227">
-        <v>175.7095425266667</v>
+        <v>209.5594200800625</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>38842</v>
       </c>
       <c r="B228">
-        <v>415.3419878336589</v>
+        <v>432.8940612677594</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>38849</v>
       </c>
       <c r="B229">
-        <v>227.213506498701</v>
+        <v>229.1586353956441</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>38856</v>
       </c>
       <c r="B230">
-        <v>27.95335422757577</v>
+        <v>24.14783152086608</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>38863</v>
       </c>
       <c r="B231">
-        <v>-48.17564499798262</v>
+        <v>-45.09594243397648</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>38870</v>
       </c>
       <c r="B232">
-        <v>-103.0078956100528</v>
+        <v>-110.2928624090238</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>38877</v>
       </c>
       <c r="B233">
-        <v>-554.9136264558812</v>
+        <v>-573.752812180876</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>38884</v>
       </c>
       <c r="B234">
-        <v>-49.39135062040829</v>
+        <v>-49.85369487320538</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>38891</v>
       </c>
       <c r="B235">
-        <v>-236.454846072151</v>
+        <v>-239.4928593749482</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>38898</v>
       </c>
       <c r="B236">
-        <v>209.2490329332544</v>
+        <v>211.9668202797894</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>38905</v>
       </c>
       <c r="B237">
-        <v>-28.42645716687179</v>
+        <v>-30.41402219797535</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>38912</v>
       </c>
       <c r="B238">
-        <v>-67.29979570273947</v>
+        <v>-73.1676562420769</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>38919</v>
       </c>
       <c r="B239">
-        <v>2.014653258923566</v>
+        <v>1.998518181696426</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>38954</v>
       </c>
       <c r="B244">
-        <v>-128.5684148441702</v>
+        <v>-130.5618004586609</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>38961</v>
       </c>
       <c r="B245">
-        <v>-28.9859738670015</v>
+        <v>-31.22276706660512</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>38968</v>
       </c>
       <c r="B246">
-        <v>48.23267336414843</v>
+        <v>47.32067239564316</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>38975</v>
       </c>
       <c r="B247">
-        <v>-59.12143641186606</v>
+        <v>-58.56029533742241</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>38982</v>
       </c>
       <c r="B248">
-        <v>262.2200102592884</v>
+        <v>283.213617684992</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>38989</v>
       </c>
       <c r="B249">
-        <v>66.94153789642672</v>
+        <v>60.85322819724166</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>38996</v>
       </c>
       <c r="B250">
-        <v>215.3074870844921</v>
+        <v>227.7424454163421</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>39003</v>
       </c>
       <c r="B251">
-        <v>117.9609971742502</v>
+        <v>136.2677935380656</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>39010</v>
       </c>
       <c r="B252">
-        <v>268.4134812805759</v>
+        <v>307.2106564208153</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>39017</v>
       </c>
       <c r="B253">
-        <v>52.77403393251118</v>
+        <v>56.33202900741013</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>39024</v>
       </c>
       <c r="B254">
-        <v>141.7360621535113</v>
+        <v>179.2492446034218</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>39031</v>
       </c>
       <c r="B255">
-        <v>163.635243570022</v>
+        <v>159.6829781003793</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>39038</v>
       </c>
       <c r="B256">
-        <v>307.9487304802254</v>
+        <v>360.3743922088357</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>39045</v>
       </c>
       <c r="B257">
-        <v>219.8335690557387</v>
+        <v>261.444061269162</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>39052</v>
       </c>
       <c r="B258">
-        <v>376.9986836514727</v>
+        <v>385.3940756375578</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>39059</v>
       </c>
       <c r="B259">
-        <v>39.55881507148097</v>
+        <v>38.43512099021908</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>39066</v>
       </c>
       <c r="B260">
-        <v>-19.76799643933844</v>
+        <v>-31.98244807973852</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>39073</v>
       </c>
       <c r="B261">
-        <v>201.4442929629247</v>
+        <v>221.9463533216544</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>39080</v>
       </c>
       <c r="B262">
-        <v>396.1757930402246</v>
+        <v>462.9324640088646</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>39087</v>
       </c>
       <c r="B263">
-        <v>-55.61775703017141</v>
+        <v>-66.12282013208612</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>39094</v>
       </c>
       <c r="B264">
-        <v>-81.1076854992311</v>
+        <v>-104.7271288836996</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>39101</v>
       </c>
       <c r="B265">
-        <v>225.3568855100434</v>
+        <v>263.6066547279557</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>39108</v>
       </c>
       <c r="B266">
-        <v>109.656602657463</v>
+        <v>113.7120951081733</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>39115</v>
       </c>
       <c r="B267">
-        <v>-171.723487635771</v>
+        <v>-189.761578639492</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>39122</v>
       </c>
       <c r="B268">
-        <v>191.9620791435418</v>
+        <v>214.1070331893163</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>39129</v>
       </c>
       <c r="B269">
-        <v>18.91763479413094</v>
+        <v>21.03840091304342</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>39143</v>
       </c>
       <c r="B271">
-        <v>48.98614844540856</v>
+        <v>57.31057503024482</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>39150</v>
       </c>
       <c r="B272">
-        <v>-4.900459687091114</v>
+        <v>-17.71276786371759</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>39157</v>
       </c>
       <c r="B273">
-        <v>206.5451286838287</v>
+        <v>227.4709379674715</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>39164</v>
       </c>
       <c r="B274">
-        <v>232.5534399715059</v>
+        <v>249.0371018853141</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>39171</v>
       </c>
       <c r="B275">
-        <v>257.2379589872335</v>
+        <v>269.5460410156712</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>39178</v>
       </c>
       <c r="B276">
-        <v>142.7611082889724</v>
+        <v>157.6102591046378</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>39185</v>
       </c>
       <c r="B277">
-        <v>-10.10193405898467</v>
+        <v>10.38519083020221</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>39192</v>
       </c>
       <c r="B278">
-        <v>75.2182632906095</v>
+        <v>67.09791824257603</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>39199</v>
       </c>
       <c r="B279">
-        <v>53.01144103472365</v>
+        <v>48.90047228304822</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>39206</v>
       </c>
       <c r="B280">
-        <v>-244.1512655545064</v>
+        <v>-262.1847905509687</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>39213</v>
       </c>
       <c r="B281">
-        <v>97.22299312059749</v>
+        <v>104.8526858080911</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>39220</v>
       </c>
       <c r="B282">
-        <v>-45.67612405224337</v>
+        <v>-55.22254234478189</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>39227</v>
       </c>
       <c r="B283">
-        <v>26.53389469977529</v>
+        <v>33.56101109924252</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>39234</v>
       </c>
       <c r="B284">
-        <v>-67.90481375207573</v>
+        <v>-65.63753438245686</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>39241</v>
       </c>
       <c r="B285">
-        <v>151.6565892535066</v>
+        <v>149.6388847600026</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>39248</v>
       </c>
       <c r="B286">
-        <v>99.41272647490467</v>
+        <v>137.980524167218</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>39255</v>
       </c>
       <c r="B287">
-        <v>227.1197205660045</v>
+        <v>249.0640362952813</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>39262</v>
       </c>
       <c r="B288">
-        <v>295.7457202150512</v>
+        <v>336.0709451161329</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>39269</v>
       </c>
       <c r="B289">
-        <v>464.8877955157063</v>
+        <v>538.2820389776163</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>39276</v>
       </c>
       <c r="B290">
-        <v>274.8329646604437</v>
+        <v>304.1452342917239</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>39283</v>
       </c>
       <c r="B291">
-        <v>334.1510883606858</v>
+        <v>355.1071879512665</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>39290</v>
       </c>
       <c r="B292">
-        <v>193.0301996795269</v>
+        <v>207.4287260878619</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>39297</v>
       </c>
       <c r="B293">
-        <v>-201.2956982122943</v>
+        <v>-189.2393686042051</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>39311</v>
       </c>
       <c r="B295">
-        <v>-531.99815977432</v>
+        <v>-551.9868463421024</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>39325</v>
       </c>
       <c r="B297">
-        <v>122.4933266629944</v>
+        <v>128.147733046621</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>39332</v>
       </c>
       <c r="B298">
-        <v>18.33462906593897</v>
+        <v>17.35991082043181</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>39339</v>
       </c>
       <c r="B299">
-        <v>-9.435172120862283</v>
+        <v>-10.77060024340745</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>39346</v>
       </c>
       <c r="B300">
-        <v>33.46337089234751</v>
+        <v>35.42086529950635</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>39360</v>
       </c>
       <c r="B302">
-        <v>20.01591895101083</v>
+        <v>19.75902964694731</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>39374</v>
       </c>
       <c r="B304">
-        <v>-101.7746149054523</v>
+        <v>-103.2110034143442</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>39381</v>
       </c>
       <c r="B305">
-        <v>-3.216694227221636</v>
+        <v>-2.878856389383797</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>39388</v>
       </c>
       <c r="B306">
-        <v>-107.332420370729</v>
+        <v>-110.1193325962566</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>39395</v>
       </c>
       <c r="B307">
-        <v>171.3437154592635</v>
+        <v>171.3335049015559</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>39402</v>
       </c>
       <c r="B308">
-        <v>-52.39001279285218</v>
+        <v>-52.38080158028694</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>39409</v>
       </c>
       <c r="B309">
-        <v>30.8000796566366</v>
+        <v>30.79424617323321</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>39416</v>
       </c>
       <c r="B310">
-        <v>-24.99533362578244</v>
+        <v>-24.98465789297358</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>39423</v>
       </c>
       <c r="B311">
-        <v>-101.5010475896142</v>
+        <v>-101.508313555435</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>39458</v>
       </c>
       <c r="B316">
-        <v>191.4296338395424</v>
+        <v>191.4303298541665</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>39465</v>
       </c>
       <c r="B317">
-        <v>118.290548824907</v>
+        <v>118.2858165512382</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>39472</v>
       </c>
       <c r="B318">
-        <v>378.0978560238871</v>
+        <v>378.1025141379237</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>39514</v>
       </c>
       <c r="B324">
-        <v>-33.33347852721046</v>
+        <v>-34.6364667134509</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>39521</v>
       </c>
       <c r="B325">
-        <v>-191.3081122874337</v>
+        <v>-194.1870306714808</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>39528</v>
       </c>
       <c r="B326">
-        <v>22.87007820795612</v>
+        <v>31.46675258872158</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>39535</v>
       </c>
       <c r="B327">
-        <v>210.4395558378642</v>
+        <v>214.8641170469488</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>39542</v>
       </c>
       <c r="B328">
-        <v>-123.9889538366676</v>
+        <v>-134.5856903585575</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>39549</v>
       </c>
       <c r="B329">
-        <v>293.0040358828006</v>
+        <v>301.8563128449892</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>39556</v>
       </c>
       <c r="B330">
-        <v>374.208958555513</v>
+        <v>389.3213349274682</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>39563</v>
       </c>
       <c r="B331">
-        <v>-65.47910273610057</v>
+        <v>-84.75500019180419</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>39570</v>
       </c>
       <c r="B332">
-        <v>-226.4845633396908</v>
+        <v>-222.6424304831536</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>39577</v>
       </c>
       <c r="B333">
-        <v>126.7082695452882</v>
+        <v>125.595135749967</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>39584</v>
       </c>
       <c r="B334">
-        <v>290.967817853029</v>
+        <v>290.7516487045975</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>39591</v>
       </c>
       <c r="B335">
-        <v>-128.1663831701995</v>
+        <v>-129.4535504417912</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>39598</v>
       </c>
       <c r="B336">
-        <v>-818.2579895092576</v>
+        <v>-840.1558514663392</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>39605</v>
       </c>
       <c r="B337">
-        <v>201.0072624243876</v>
+        <v>202.7129393756184</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>39612</v>
       </c>
       <c r="B338">
-        <v>-491.884885556193</v>
+        <v>-516.0374820865512</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>39619</v>
       </c>
       <c r="B339">
-        <v>18.68456284007155</v>
+        <v>21.3699065241021</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>39626</v>
       </c>
       <c r="B340">
-        <v>77.63444947399545</v>
+        <v>71.858494464831</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>39633</v>
       </c>
       <c r="B341">
-        <v>72.05823150569525</v>
+        <v>72.0403249192786</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>39640</v>
       </c>
       <c r="B342">
-        <v>15.78854056732486</v>
+        <v>15.80490657975815</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>39647</v>
       </c>
       <c r="B343">
-        <v>134.4231601821727</v>
+        <v>134.4055208582399</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>39654</v>
       </c>
       <c r="B344">
-        <v>-272.8740972199788</v>
+        <v>-272.8518322261569</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>39661</v>
       </c>
       <c r="B345">
-        <v>83.20430588037958</v>
+        <v>83.20657106954053</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>39668</v>
       </c>
       <c r="B346">
-        <v>-188.5306027530705</v>
+        <v>-188.5476154075733</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>39682</v>
       </c>
       <c r="B348">
-        <v>112.3510503957112</v>
+        <v>112.3972140755483</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>39696</v>
       </c>
       <c r="B350">
-        <v>338.3390218789596</v>
+        <v>338.2204526743689</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>39703</v>
       </c>
       <c r="B351">
-        <v>119.0188625467783</v>
+        <v>118.9408747312485</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>39731</v>
       </c>
       <c r="B355">
-        <v>693.6886675034709</v>
+        <v>693.6770839565042</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>39766</v>
       </c>
       <c r="B360">
-        <v>239.4106032234441</v>
+        <v>239.4314912348017</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>39773</v>
       </c>
       <c r="B361">
-        <v>123.1827202736404</v>
+        <v>123.1706242935843</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>39794</v>
       </c>
       <c r="B364">
-        <v>-412.4352983903972</v>
+        <v>-412.4823192453926</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>39801</v>
       </c>
       <c r="B365">
-        <v>49.66844243197495</v>
+        <v>49.6794575888308</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>39815</v>
       </c>
       <c r="B367">
-        <v>11.0786113256185</v>
+        <v>15.66096585821548</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>39822</v>
       </c>
       <c r="B368">
-        <v>-40.37545225726939</v>
+        <v>-40.64961264109392</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>39829</v>
       </c>
       <c r="B369">
-        <v>-140.7473981668951</v>
+        <v>-142.0532400912937</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>39836</v>
       </c>
       <c r="B370">
-        <v>-123.8458985822281</v>
+        <v>-122.7316924540944</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>39850</v>
       </c>
       <c r="B372">
-        <v>-181.4708269835506</v>
+        <v>-177.917646553269</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>39857</v>
       </c>
       <c r="B373">
-        <v>190.550539382557</v>
+        <v>188.0904329995783</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>39864</v>
       </c>
       <c r="B374">
-        <v>-281.7786035908298</v>
+        <v>-285.1187535567466</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>39871</v>
       </c>
       <c r="B375">
-        <v>462.920624340391</v>
+        <v>468.985504453226</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>39878</v>
       </c>
       <c r="B376">
-        <v>449.7570330922582</v>
+        <v>452.5495862837475</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>39885</v>
       </c>
       <c r="B377">
-        <v>609.755755104486</v>
+        <v>619.4582130605016</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>39892</v>
       </c>
       <c r="B378">
-        <v>333.8791231789264</v>
+        <v>339.1857269525112</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>39899</v>
       </c>
       <c r="B379">
-        <v>1733.556386069095</v>
+        <v>1732.100618991827</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>39906</v>
       </c>
       <c r="B380">
-        <v>529.852815356798</v>
+        <v>534.9664517204344</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>39913</v>
       </c>
       <c r="B381">
-        <v>1422.657101667658</v>
+        <v>1433.251696262253</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>39920</v>
       </c>
       <c r="B382">
-        <v>-445.3163927270476</v>
+        <v>-446.6360408208892</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>39927</v>
       </c>
       <c r="B383">
-        <v>816.87275846055</v>
+        <v>831.7811289409858</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>39934</v>
       </c>
       <c r="B384">
-        <v>-399.7504064705193</v>
+        <v>-404.4486823325882</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>39941</v>
       </c>
       <c r="B385">
-        <v>1531.417053057152</v>
+        <v>1532.954818774022</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>39948</v>
       </c>
       <c r="B386">
-        <v>113.4878176238975</v>
+        <v>113.9777953521826</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>39955</v>
       </c>
       <c r="B387">
-        <v>1187.650507864157</v>
+        <v>1185.833131977632</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>39962</v>
       </c>
       <c r="B388">
-        <v>289.5329923651771</v>
+        <v>287.6819765638226</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>39969</v>
       </c>
       <c r="B389">
-        <v>-344.8208420003106</v>
+        <v>-353.1465089736316</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>39990</v>
       </c>
       <c r="B392">
-        <v>529.4009900742225</v>
+        <v>529.4009900742224</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>40067</v>
       </c>
       <c r="B403">
-        <v>134.317073621301</v>
+        <v>134.3170736213009</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>40074</v>
       </c>
       <c r="B404">
-        <v>887.4759803811261</v>
+        <v>892.6211262668609</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>40081</v>
       </c>
       <c r="B405">
-        <v>83.47201537718561</v>
+        <v>74.38648432216141</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>40088</v>
       </c>
       <c r="B406">
-        <v>129.738544240599</v>
+        <v>126.3033175521653</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>40095</v>
       </c>
       <c r="B407">
-        <v>620.091394746484</v>
+        <v>655.5213531921561</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>40102</v>
       </c>
       <c r="B408">
-        <v>859.6982662694875</v>
+        <v>903.6440727627912</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>40109</v>
       </c>
       <c r="B409">
-        <v>354.7390046806729</v>
+        <v>367.7715751318378</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>40116</v>
       </c>
       <c r="B410">
-        <v>-762.4864633321097</v>
+        <v>-779.9054166837284</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>40123</v>
       </c>
       <c r="B411">
-        <v>448.0582713929183</v>
+        <v>450.0037562035716</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>40130</v>
       </c>
       <c r="B412">
-        <v>275.0829601817103</v>
+        <v>276.3051705794853</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>40137</v>
       </c>
       <c r="B413">
-        <v>219.0921616752061</v>
+        <v>247.8995932377085</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>40144</v>
       </c>
       <c r="B414">
-        <v>-256.6512708130923</v>
+        <v>-267.1265811812316</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>40158</v>
       </c>
       <c r="B416">
-        <v>468.0947538456631</v>
+        <v>473.2475761903182</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>40165</v>
       </c>
       <c r="B417">
-        <v>113.5307843580586</v>
+        <v>116.4295579274354</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>40172</v>
       </c>
       <c r="B418">
-        <v>226.1942780611609</v>
+        <v>241.8256126317515</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>40179</v>
       </c>
       <c r="B419">
-        <v>470.6799658804622</v>
+        <v>476.6563347250288</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>40186</v>
       </c>
       <c r="B420">
-        <v>-174.0001212578236</v>
+        <v>-180.976677374275</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>40193</v>
       </c>
       <c r="B421">
-        <v>183.1253473895146</v>
+        <v>188.9515156091921</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>40200</v>
       </c>
       <c r="B422">
-        <v>-486.3867432393868</v>
+        <v>-502.3416112848469</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>40207</v>
       </c>
       <c r="B423">
-        <v>-274.8314292298767</v>
+        <v>-276.3565598552588</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>40214</v>
       </c>
       <c r="B424">
-        <v>-119.6202793400397</v>
+        <v>-119.6174600325436</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>40221</v>
       </c>
       <c r="B425">
-        <v>-3.119567920898028</v>
+        <v>-3.122481232400936</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>40235</v>
       </c>
       <c r="B427">
-        <v>98.90415101184124</v>
+        <v>98.89400543840581</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>40242</v>
       </c>
       <c r="B428">
-        <v>-167.0668629512119</v>
+        <v>-167.0575624358203</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>40249</v>
       </c>
       <c r="B429">
-        <v>-33.06075413895142</v>
+        <v>-31.93082889030278</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>40256</v>
       </c>
       <c r="B430">
-        <v>98.57443071115335</v>
+        <v>98.84656723516133</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>40263</v>
       </c>
       <c r="B431">
-        <v>74.87466757310116</v>
+        <v>95.50752709932684</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>40270</v>
       </c>
       <c r="B432">
-        <v>119.559367325804</v>
+        <v>117.2374462189616</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>40277</v>
       </c>
       <c r="B433">
-        <v>70.43236388990746</v>
+        <v>71.35842992077271</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>40284</v>
       </c>
       <c r="B434">
-        <v>133.925529403835</v>
+        <v>148.4359535270918</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>40291</v>
       </c>
       <c r="B435">
-        <v>35.01164418567583</v>
+        <v>28.13987899537396</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>40298</v>
       </c>
       <c r="B436">
-        <v>13.37788591519432</v>
+        <v>13.06924393988568</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>40305</v>
       </c>
       <c r="B437">
-        <v>47.60732847620095</v>
+        <v>49.08596113380633</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>40312</v>
       </c>
       <c r="B438">
-        <v>9.030535827833452</v>
+        <v>14.57400447843989</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>40319</v>
       </c>
       <c r="B439">
-        <v>-17.95069837544838</v>
+        <v>-53.31618078053219</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>40326</v>
       </c>
       <c r="B440">
-        <v>-117.9324674716692</v>
+        <v>-117.5914058834742</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>40333</v>
       </c>
       <c r="B441">
-        <v>6.471883425665446</v>
+        <v>39.08770707006723</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>40340</v>
       </c>
       <c r="B442">
-        <v>96.44752928738683</v>
+        <v>94.24209301925653</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>40347</v>
       </c>
       <c r="B443">
-        <v>-53.76135796985402</v>
+        <v>-47.96916584708351</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>40354</v>
       </c>
       <c r="B444">
-        <v>31.61347755858099</v>
+        <v>38.70739540661744</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>40361</v>
       </c>
       <c r="B445">
-        <v>41.71381649858169</v>
+        <v>38.2526844953466</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>40368</v>
       </c>
       <c r="B446">
-        <v>-204.9073559010455</v>
+        <v>-203.3884991988571</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>40375</v>
       </c>
       <c r="B447">
-        <v>47.04223775756728</v>
+        <v>46.39713979176629</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>40382</v>
       </c>
       <c r="B448">
-        <v>150.8544926954913</v>
+        <v>160.7997674963966</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>40389</v>
       </c>
       <c r="B449">
-        <v>141.6575227921977</v>
+        <v>142.3699405416136</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>40396</v>
       </c>
       <c r="B450">
-        <v>271.5751749389708</v>
+        <v>286.9331563007991</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>40403</v>
       </c>
       <c r="B451">
-        <v>53.6058757891875</v>
+        <v>48.91649307533389</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>40410</v>
       </c>
       <c r="B452">
-        <v>60.18433228371127</v>
+        <v>85.90069741097787</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>40417</v>
       </c>
       <c r="B453">
-        <v>-39.5984028978022</v>
+        <v>-46.77826784281644</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>40424</v>
       </c>
       <c r="B454">
-        <v>-17.39127933857731</v>
+        <v>1.381793114349492</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>40431</v>
       </c>
       <c r="B455">
-        <v>-39.84302443287906</v>
+        <v>-40.65901919301091</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>40438</v>
       </c>
       <c r="B456">
-        <v>91.31119381907646</v>
+        <v>127.1125902212833</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>40445</v>
       </c>
       <c r="B457">
-        <v>84.38692403774469</v>
+        <v>97.67638061554214</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>40452</v>
       </c>
       <c r="B458">
-        <v>88.97036378833208</v>
+        <v>108.0399883807488</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>40459</v>
       </c>
       <c r="B459">
-        <v>146.3284579669268</v>
+        <v>166.7748094919776</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>40466</v>
       </c>
       <c r="B460">
-        <v>180.8647461813132</v>
+        <v>209.4020783202282</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>40473</v>
       </c>
       <c r="B461">
-        <v>-138.9144539590948</v>
+        <v>-154.7850590468498</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>40480</v>
       </c>
       <c r="B462">
-        <v>93.11331788509868</v>
+        <v>94.1773861313717</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>40487</v>
       </c>
       <c r="B463">
-        <v>111.9157969115483</v>
+        <v>107.5808235229076</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>40494</v>
       </c>
       <c r="B464">
-        <v>99.03804444869328</v>
+        <v>79.99405209205858</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>40501</v>
       </c>
       <c r="B465">
-        <v>-140.2521325016618</v>
+        <v>-148.7702298232294</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>40508</v>
       </c>
       <c r="B466">
-        <v>-72.9719409313617</v>
+        <v>-84.22180089475192</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>40515</v>
       </c>
       <c r="B467">
-        <v>191.8268914872294</v>
+        <v>214.1732276438288</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>40522</v>
       </c>
       <c r="B468">
-        <v>176.9281417880717</v>
+        <v>176.2225296499215</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>40529</v>
       </c>
       <c r="B469">
-        <v>94.21919384404808</v>
+        <v>95.87198720902597</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>40536</v>
       </c>
       <c r="B470">
-        <v>123.8737410597129</v>
+        <v>146.875872696166</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>40543</v>
       </c>
       <c r="B471">
-        <v>-43.37968197763368</v>
+        <v>-48.01941803864838</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>40550</v>
       </c>
       <c r="B472">
-        <v>-119.7348475753993</v>
+        <v>-120.0412151767115</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>40557</v>
       </c>
       <c r="B473">
-        <v>64.86470775367621</v>
+        <v>71.22187801439186</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>40564</v>
       </c>
       <c r="B474">
-        <v>-7.029786384992157</v>
+        <v>-13.0390621407624</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>40571</v>
       </c>
       <c r="B475">
-        <v>35.22901299944492</v>
+        <v>44.99307767267621</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>40585</v>
       </c>
       <c r="B477">
-        <v>-105.5393639970348</v>
+        <v>-140.2432502423186</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>40592</v>
       </c>
       <c r="B478">
-        <v>105.2485090750776</v>
+        <v>102.815493043042</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>40599</v>
       </c>
       <c r="B479">
-        <v>-38.50573521675035</v>
+        <v>-56.32687293589866</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>40613</v>
       </c>
       <c r="B481">
-        <v>-27.28704992126139</v>
+        <v>-23.0895024209245</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>40620</v>
       </c>
       <c r="B482">
-        <v>299.8262965953643</v>
+        <v>301.0570275749765</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>40627</v>
       </c>
       <c r="B483">
-        <v>-144.4451411960222</v>
+        <v>-141.5210936347507</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>40634</v>
       </c>
       <c r="B484">
-        <v>162.0005547447792</v>
+        <v>167.1326178831333</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>40641</v>
       </c>
       <c r="B485">
-        <v>-57.15796541872831</v>
+        <v>-53.19970979856112</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>40648</v>
       </c>
       <c r="B486">
-        <v>138.4745299233486</v>
+        <v>130.0846911913799</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>40655</v>
       </c>
       <c r="B487">
-        <v>99.15356304200289</v>
+        <v>107.2901314960193</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>40662</v>
       </c>
       <c r="B488">
-        <v>39.3815104021168</v>
+        <v>29.93417728171136</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>40669</v>
       </c>
       <c r="B489">
-        <v>104.4915365569935</v>
+        <v>104.6955136362018</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>40676</v>
       </c>
       <c r="B490">
-        <v>24.90807744808791</v>
+        <v>26.88158194460059</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>40683</v>
       </c>
       <c r="B491">
-        <v>-95.52347014918595</v>
+        <v>-99.9057053631789</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>40690</v>
       </c>
       <c r="B492">
-        <v>159.7869139477225</v>
+        <v>164.7724527464875</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>40697</v>
       </c>
       <c r="B493">
-        <v>24.21124705121083</v>
+        <v>30.47621406313633</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>40704</v>
       </c>
       <c r="B494">
-        <v>-109.258346135935</v>
+        <v>-111.6817820138933</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>40711</v>
       </c>
       <c r="B495">
-        <v>-99.93743625330379</v>
+        <v>-104.7703702383099</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>40718</v>
       </c>
       <c r="B496">
-        <v>235.3197838642633</v>
+        <v>233.2928210899821</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>40725</v>
       </c>
       <c r="B497">
-        <v>-38.40746669873272</v>
+        <v>-36.37259591731054</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>40732</v>
       </c>
       <c r="B498">
-        <v>194.2901006517727</v>
+        <v>193.8414734439883</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>40739</v>
       </c>
       <c r="B499">
-        <v>486.3235189614782</v>
+        <v>490.9007520848936</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>40746</v>
       </c>
       <c r="B500">
-        <v>147.5081496882034</v>
+        <v>159.6180058583323</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>40753</v>
       </c>
       <c r="B501">
-        <v>146.7298613985398</v>
+        <v>140.4478962310962</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>40760</v>
       </c>
       <c r="B502">
-        <v>18.79869589575756</v>
+        <v>-27.09857465364615</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>40767</v>
       </c>
       <c r="B503">
-        <v>359.0038960428967</v>
+        <v>358.7173572033409</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>40774</v>
       </c>
       <c r="B504">
-        <v>378.8629657768107</v>
+        <v>376.5421772463447</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>40844</v>
       </c>
       <c r="B514">
-        <v>-178.4543106391878</v>
+        <v>-178.4438185140282</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>40865</v>
       </c>
       <c r="B517">
-        <v>54.39211001042675</v>
+        <v>54.39998093052139</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>40872</v>
       </c>
       <c r="B518">
-        <v>404.9099352235312</v>
+        <v>404.9073810375536</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>40879</v>
       </c>
       <c r="B519">
-        <v>-491.9261027494245</v>
+        <v>-491.9354598185997</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>40886</v>
       </c>
       <c r="B520">
-        <v>507.6720931062208</v>
+        <v>507.6730388863573</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>40893</v>
       </c>
       <c r="B521">
-        <v>28.02975604880513</v>
+        <v>28.05048402932198</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>40900</v>
       </c>
       <c r="B522">
-        <v>-562.0110776606786</v>
+        <v>-562.0115975952211</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>40907</v>
       </c>
       <c r="B523">
-        <v>40.24501041110756</v>
+        <v>40.24195883954821</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>40914</v>
       </c>
       <c r="B524">
-        <v>-5.263317036024071</v>
+        <v>-5.273765883895941</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>40984</v>
       </c>
       <c r="B534">
-        <v>188.5965710108888</v>
+        <v>188.5965710108887</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>41012</v>
       </c>
       <c r="B538">
-        <v>94.98159526813249</v>
+        <v>94.98159526813251</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>41110</v>
       </c>
       <c r="B552">
-        <v>59.0735525993249</v>
+        <v>59.07022773411629</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>41117</v>
       </c>
       <c r="B553">
-        <v>74.68682566676428</v>
+        <v>74.67753088380341</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>41124</v>
       </c>
       <c r="B554">
-        <v>81.69487757456007</v>
+        <v>81.70753227517316</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>41131</v>
       </c>
       <c r="B555">
-        <v>62.39074027249096</v>
+        <v>62.37937399936034</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>41138</v>
       </c>
       <c r="B556">
-        <v>74.96628334937775</v>
+        <v>74.96689479020749</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>41145</v>
       </c>
       <c r="B557">
-        <v>93.06696089201145</v>
+        <v>93.06713904390011</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>41159</v>
       </c>
       <c r="B559">
-        <v>-3.039047664158701</v>
+        <v>-3.041130763221481</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>41166</v>
       </c>
       <c r="B560">
-        <v>243.4093027119252</v>
+        <v>243.4036711647248</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>41187</v>
       </c>
       <c r="B563">
-        <v>-21.96774787487799</v>
+        <v>-21.07773003370407</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>41194</v>
       </c>
       <c r="B564">
-        <v>-273.760648747059</v>
+        <v>-290.9337550252664</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>41201</v>
       </c>
       <c r="B565">
-        <v>97.09741582146737</v>
+        <v>105.106572300971</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>41208</v>
       </c>
       <c r="B566">
-        <v>-336.7926177707388</v>
+        <v>-364.4983316104949</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>41215</v>
       </c>
       <c r="B567">
-        <v>148.5230846338901</v>
+        <v>150.0404825162238</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>41222</v>
       </c>
       <c r="B568">
-        <v>-36.71511777075471</v>
+        <v>-30.53757463445373</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>41229</v>
       </c>
       <c r="B569">
-        <v>34.87548486321408</v>
+        <v>34.49019328636297</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>41236</v>
       </c>
       <c r="B570">
-        <v>-82.75148335816148</v>
+        <v>-82.4480719987737</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>41243</v>
       </c>
       <c r="B571">
-        <v>-34.41383131045508</v>
+        <v>-29.98714573516204</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>41250</v>
       </c>
       <c r="B572">
-        <v>61.39556335747938</v>
+        <v>66.8328674484487</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>41257</v>
       </c>
       <c r="B573">
-        <v>80.58175324103381</v>
+        <v>85.45511690145536</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>41264</v>
       </c>
       <c r="B574">
-        <v>-116.8590534178278</v>
+        <v>-131.2475008435006</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4983,7 +4983,7 @@
         <v>41271</v>
       </c>
       <c r="B575">
-        <v>443.7391393562601</v>
+        <v>480.1392138579101</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>41278</v>
       </c>
       <c r="B576">
-        <v>143.972410498726</v>
+        <v>150.7876832569948</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>41285</v>
       </c>
       <c r="B577">
-        <v>214.0778915442897</v>
+        <v>221.804230063807</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>41292</v>
       </c>
       <c r="B578">
-        <v>-335.9371993010542</v>
+        <v>-362.793234982165</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>41299</v>
       </c>
       <c r="B579">
-        <v>-26.57943424202378</v>
+        <v>-26.64062880406538</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>41306</v>
       </c>
       <c r="B580">
-        <v>198.0118681267044</v>
+        <v>219.8268339032817</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>41313</v>
       </c>
       <c r="B581">
-        <v>67.11957035339682</v>
+        <v>59.26488154643797</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>41327</v>
       </c>
       <c r="B583">
-        <v>299.3486656769741</v>
+        <v>307.5633351334727</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>41334</v>
       </c>
       <c r="B584">
-        <v>263.5215561725274</v>
+        <v>271.9964374300288</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>41341</v>
       </c>
       <c r="B585">
-        <v>320.7568153210372</v>
+        <v>324.6383420868702</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>41348</v>
       </c>
       <c r="B586">
-        <v>-99.22564160844001</v>
+        <v>-106.6742522121733</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>41355</v>
       </c>
       <c r="B587">
-        <v>98.31753603646833</v>
+        <v>99.86577349342511</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>41362</v>
       </c>
       <c r="B588">
-        <v>290.1061262295782</v>
+        <v>293.5433335037203</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>41369</v>
       </c>
       <c r="B589">
-        <v>173.8426573918053</v>
+        <v>178.8642901067461</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>41376</v>
       </c>
       <c r="B590">
-        <v>-349.3640804110737</v>
+        <v>-356.8211609922819</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>41383</v>
       </c>
       <c r="B591">
-        <v>385.7292648512518</v>
+        <v>398.9490029429454</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>41390</v>
       </c>
       <c r="B592">
-        <v>411.7342942157773</v>
+        <v>414.4487687404628</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>41397</v>
       </c>
       <c r="B593">
-        <v>-14.08108962329619</v>
+        <v>-12.48152135706362</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>41404</v>
       </c>
       <c r="B594">
-        <v>219.6939391893629</v>
+        <v>236.7914562344987</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>41411</v>
       </c>
       <c r="B595">
-        <v>636.9468191781257</v>
+        <v>694.3373855370655</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>41418</v>
       </c>
       <c r="B596">
-        <v>-145.0001161549776</v>
+        <v>-174.1855353049962</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>41425</v>
       </c>
       <c r="B597">
-        <v>939.7841428426055</v>
+        <v>1023.439045897276</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>41432</v>
       </c>
       <c r="B598">
-        <v>-339.694150603279</v>
+        <v>-411.548284673331</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>41439</v>
       </c>
       <c r="B599">
-        <v>-282.0841407084643</v>
+        <v>-325.2740826659293</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>41446</v>
       </c>
       <c r="B600">
-        <v>248.6534845868657</v>
+        <v>255.4018136644259</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>41453</v>
       </c>
       <c r="B601">
-        <v>105.4512848790181</v>
+        <v>124.0741615180894</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>41460</v>
       </c>
       <c r="B602">
-        <v>719.8973729930698</v>
+        <v>767.6085403599112</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>41467</v>
       </c>
       <c r="B603">
-        <v>592.7506446837266</v>
+        <v>647.189775395889</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>41474</v>
       </c>
       <c r="B604">
-        <v>205.3304443086668</v>
+        <v>223.5384655053347</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>41481</v>
       </c>
       <c r="B605">
-        <v>182.6690208665459</v>
+        <v>218.3146305828317</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>41488</v>
       </c>
       <c r="B606">
-        <v>364.8455368074127</v>
+        <v>393.8995690850422</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>41495</v>
       </c>
       <c r="B607">
-        <v>-73.16969795884248</v>
+        <v>-82.84560265739832</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>41502</v>
       </c>
       <c r="B608">
-        <v>-108.1612491567989</v>
+        <v>-105.4093206879753</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>41509</v>
       </c>
       <c r="B609">
-        <v>70.24516964946149</v>
+        <v>86.07160736049275</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>41516</v>
       </c>
       <c r="B610">
-        <v>10.38719127944715</v>
+        <v>15.43012039523239</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>41523</v>
       </c>
       <c r="B611">
-        <v>268.2703376731872</v>
+        <v>308.8244195662725</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>41530</v>
       </c>
       <c r="B612">
-        <v>41.58658263900591</v>
+        <v>39.72319211098604</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>41537</v>
       </c>
       <c r="B613">
-        <v>98.05735582513672</v>
+        <v>95.35195139979542</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>41544</v>
       </c>
       <c r="B614">
-        <v>27.46128679487986</v>
+        <v>38.14048167759884</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>41551</v>
       </c>
       <c r="B615">
-        <v>556.0609822893447</v>
+        <v>607.767411506948</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>41558</v>
       </c>
       <c r="B616">
-        <v>1.684180843611429</v>
+        <v>-2.773541286441413</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>41565</v>
       </c>
       <c r="B617">
-        <v>309.3004865059202</v>
+        <v>364.5462148665593</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>41572</v>
       </c>
       <c r="B618">
-        <v>38.49611343979232</v>
+        <v>22.45341075799035</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>41579</v>
       </c>
       <c r="B619">
-        <v>241.4325504984777</v>
+        <v>264.6069203218422</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>41586</v>
       </c>
       <c r="B620">
-        <v>-360.8993357745401</v>
+        <v>-389.5385198031368</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>41593</v>
       </c>
       <c r="B621">
-        <v>-82.62224889673944</v>
+        <v>-93.49936748952322</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>41600</v>
       </c>
       <c r="B622">
-        <v>233.2764198487736</v>
+        <v>254.6718008038005</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>41607</v>
       </c>
       <c r="B623">
-        <v>206.1649498287842</v>
+        <v>267.7586936207805</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>41614</v>
       </c>
       <c r="B624">
-        <v>299.1608650695637</v>
+        <v>325.2561404850639</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>41621</v>
       </c>
       <c r="B625">
-        <v>-153.556136101263</v>
+        <v>-179.3452135904455</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>41628</v>
       </c>
       <c r="B626">
-        <v>120.5726589360763</v>
+        <v>149.3877313607825</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>41635</v>
       </c>
       <c r="B627">
-        <v>159.9698305889911</v>
+        <v>181.3542186007002</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>41642</v>
       </c>
       <c r="B628">
-        <v>115.6136496189932</v>
+        <v>143.2039010240641</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>41649</v>
       </c>
       <c r="B629">
-        <v>160.6412758109225</v>
+        <v>187.2509983947077</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>41656</v>
       </c>
       <c r="B630">
-        <v>37.17185290329773</v>
+        <v>50.19282626985822</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>41663</v>
       </c>
       <c r="B631">
-        <v>52.78210054012496</v>
+        <v>61.85479080610261</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>41670</v>
       </c>
       <c r="B632">
-        <v>-205.8691968690251</v>
+        <v>-244.5782924296188</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>41677</v>
       </c>
       <c r="B633">
-        <v>297.8726032519975</v>
+        <v>366.9729324420231</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>41684</v>
       </c>
       <c r="B634">
-        <v>190.9891607481371</v>
+        <v>208.3426235070424</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>41691</v>
       </c>
       <c r="B635">
-        <v>383.2306772773682</v>
+        <v>465.0735026662662</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>41698</v>
       </c>
       <c r="B636">
-        <v>277.4842124535481</v>
+        <v>331.797972815709</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>41705</v>
       </c>
       <c r="B637">
-        <v>-89.74596803779995</v>
+        <v>-116.6199702421746</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>41712</v>
       </c>
       <c r="B638">
-        <v>351.9756583458511</v>
+        <v>390.8563702388536</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>41719</v>
       </c>
       <c r="B639">
-        <v>-213.688080931442</v>
+        <v>-246.811671750077</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>41726</v>
       </c>
       <c r="B640">
-        <v>217.5430906126298</v>
+        <v>228.1944143292855</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>41733</v>
       </c>
       <c r="B641">
-        <v>402.6317916095486</v>
+        <v>436.6366553813264</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>41740</v>
       </c>
       <c r="B642">
-        <v>-144.2180608553811</v>
+        <v>-180.9953335981724</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>41747</v>
       </c>
       <c r="B643">
-        <v>6.145601624942731</v>
+        <v>16.86733928653327</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>41754</v>
       </c>
       <c r="B644">
-        <v>-473.7409165809152</v>
+        <v>-524.6540468536282</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>41761</v>
       </c>
       <c r="B645">
-        <v>261.7089716969571</v>
+        <v>284.8154455751244</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>41768</v>
       </c>
       <c r="B646">
-        <v>83.72844756527073</v>
+        <v>75.80318938678464</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>41775</v>
       </c>
       <c r="B647">
-        <v>-137.0217382147318</v>
+        <v>-134.6899662486703</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>41782</v>
       </c>
       <c r="B648">
-        <v>278.558595090026</v>
+        <v>291.8175540935503</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>41789</v>
       </c>
       <c r="B649">
-        <v>109.1305215267366</v>
+        <v>116.0443481001834</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>41796</v>
       </c>
       <c r="B650">
-        <v>318.4919999637182</v>
+        <v>352.1462754592169</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>41803</v>
       </c>
       <c r="B651">
-        <v>-78.84991949867458</v>
+        <v>-57.46152189649973</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>41810</v>
       </c>
       <c r="B652">
-        <v>111.4172385622874</v>
+        <v>129.1855119683688</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>41817</v>
       </c>
       <c r="B653">
-        <v>14.33168030224778</v>
+        <v>11.72208306752722</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>41824</v>
       </c>
       <c r="B654">
-        <v>51.77366509770632</v>
+        <v>44.52113172295056</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>41831</v>
       </c>
       <c r="B655">
-        <v>-87.77158398728083</v>
+        <v>-92.85298167397239</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>41838</v>
       </c>
       <c r="B656">
-        <v>29.68538794855196</v>
+        <v>30.53993721997302</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>41845</v>
       </c>
       <c r="B657">
-        <v>66.1144327645295</v>
+        <v>67.96474196502849</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>41852</v>
       </c>
       <c r="B658">
-        <v>-38.89777789063627</v>
+        <v>-44.5704260859461</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>41859</v>
       </c>
       <c r="B659">
-        <v>-86.61830375884962</v>
+        <v>-137.3233194633493</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>41866</v>
       </c>
       <c r="B660">
-        <v>199.1340173351592</v>
+        <v>209.156600787506</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>41873</v>
       </c>
       <c r="B661">
-        <v>24.12059549173063</v>
+        <v>34.93522325938404</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>41880</v>
       </c>
       <c r="B662">
-        <v>26.2293107859476</v>
+        <v>57.07098949979225</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>41887</v>
       </c>
       <c r="B663">
-        <v>51.71595095904505</v>
+        <v>56.0825279174198</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>41894</v>
       </c>
       <c r="B664">
-        <v>-7.363149009547772</v>
+        <v>-15.74666107980509</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>41901</v>
       </c>
       <c r="B665">
-        <v>74.30903728641893</v>
+        <v>90.80238983418377</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>41908</v>
       </c>
       <c r="B666">
-        <v>-110.538221622689</v>
+        <v>-135.489221360282</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>41915</v>
       </c>
       <c r="B667">
-        <v>-29.83388428398471</v>
+        <v>-25.56796496508262</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>41922</v>
       </c>
       <c r="B668">
-        <v>21.58553573667754</v>
+        <v>2.665610639764154</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>41929</v>
       </c>
       <c r="B669">
-        <v>195.3066569108118</v>
+        <v>159.383428601952</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>41936</v>
       </c>
       <c r="B670">
-        <v>3.468452649801973</v>
+        <v>12.83381461293777</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>41943</v>
       </c>
       <c r="B671">
-        <v>-271.7957282422916</v>
+        <v>-274.7680675835486</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>41950</v>
       </c>
       <c r="B672">
-        <v>41.66327993430694</v>
+        <v>47.72586541808346</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>41957</v>
       </c>
       <c r="B673">
-        <v>-35.30950785889559</v>
+        <v>-33.8450197484264</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>41964</v>
       </c>
       <c r="B674">
-        <v>-31.58976161597532</v>
+        <v>-36.81822626843875</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>41971</v>
       </c>
       <c r="B675">
-        <v>10.25502476666863</v>
+        <v>13.45187283293897</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>41978</v>
       </c>
       <c r="B676">
-        <v>-40.20318530572137</v>
+        <v>-17.01544125049159</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>41985</v>
       </c>
       <c r="B677">
-        <v>-46.5322002821481</v>
+        <v>-53.09722140190397</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>41992</v>
       </c>
       <c r="B678">
-        <v>-45.27926733943279</v>
+        <v>-48.79481269649436</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>41999</v>
       </c>
       <c r="B679">
-        <v>-66.73682828370575</v>
+        <v>-44.20560348238602</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>42006</v>
       </c>
       <c r="B680">
-        <v>10.97724968837105</v>
+        <v>9.503775122592028</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>42013</v>
       </c>
       <c r="B681">
-        <v>62.79061275575533</v>
+        <v>79.53641987751769</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>42020</v>
       </c>
       <c r="B682">
-        <v>0.3721861200707668</v>
+        <v>-7.453873857185062</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>42027</v>
       </c>
       <c r="B683">
-        <v>66.26155324872342</v>
+        <v>84.11734144386745</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>42034</v>
       </c>
       <c r="B684">
-        <v>81.31644990273686</v>
+        <v>87.37641471186757</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>42041</v>
       </c>
       <c r="B685">
-        <v>-33.96597706592755</v>
+        <v>-37.10637954529612</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>42048</v>
       </c>
       <c r="B686">
-        <v>35.90967377421939</v>
+        <v>43.5412655976391</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>42062</v>
       </c>
       <c r="B688">
-        <v>202.539859191865</v>
+        <v>230.8060113038662</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>42069</v>
       </c>
       <c r="B689">
-        <v>279.4106048666947</v>
+        <v>311.5708677999934</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>42076</v>
       </c>
       <c r="B690">
-        <v>81.0162356525839</v>
+        <v>74.70782247087487</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>42083</v>
       </c>
       <c r="B691">
-        <v>324.9184393350087</v>
+        <v>347.0167557422855</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>42090</v>
       </c>
       <c r="B692">
-        <v>-179.9653575366564</v>
+        <v>-223.5615020056202</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>42097</v>
       </c>
       <c r="B693">
-        <v>250.3035276745448</v>
+        <v>267.8198259009505</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>42104</v>
       </c>
       <c r="B694">
-        <v>-31.32389553004644</v>
+        <v>-24.99693716924659</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>42111</v>
       </c>
       <c r="B695">
-        <v>250.5952831282293</v>
+        <v>256.673705681328</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>42118</v>
       </c>
       <c r="B696">
-        <v>63.02462783306372</v>
+        <v>63.0984473401164</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>42125</v>
       </c>
       <c r="B697">
-        <v>451.1248805466021</v>
+        <v>493.5279657440968</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>42132</v>
       </c>
       <c r="B698">
-        <v>-483.4157249043606</v>
+        <v>-532.0433379204942</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>42139</v>
       </c>
       <c r="B699">
-        <v>-15.37771953033748</v>
+        <v>-24.09382522018284</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>42146</v>
       </c>
       <c r="B700">
-        <v>41.73846113788126</v>
+        <v>35.70309532835363</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>42153</v>
       </c>
       <c r="B701">
-        <v>110.2257567507308</v>
+        <v>134.1335358456618</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>42160</v>
       </c>
       <c r="B702">
-        <v>17.86935172621716</v>
+        <v>4.197950230580652</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6007,7 +6007,7 @@
         <v>42167</v>
       </c>
       <c r="B703">
-        <v>260.6784665368662</v>
+        <v>257.4712549454325</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6015,7 +6015,7 @@
         <v>42174</v>
       </c>
       <c r="B704">
-        <v>-168.8679901119105</v>
+        <v>-184.1392316399692</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>42181</v>
       </c>
       <c r="B705">
-        <v>6.431801692784609</v>
+        <v>6.611921008614475</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>42188</v>
       </c>
       <c r="B706">
-        <v>-98.86421639468475</v>
+        <v>-96.23453358325169</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>42195</v>
       </c>
       <c r="B707">
-        <v>104.2033635100653</v>
+        <v>79.85344242071051</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>42202</v>
       </c>
       <c r="B708">
-        <v>53.36049190073565</v>
+        <v>53.63521589555404</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>42209</v>
       </c>
       <c r="B709">
-        <v>241.4693749728033</v>
+        <v>236.439293797756</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>42216</v>
       </c>
       <c r="B710">
-        <v>255.995341860383</v>
+        <v>248.2026413255265</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>42223</v>
       </c>
       <c r="B711">
-        <v>125.3078598699663</v>
+        <v>136.4397055371811</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>42230</v>
       </c>
       <c r="B712">
-        <v>-78.02825494626541</v>
+        <v>-78.30225788363677</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>42237</v>
       </c>
       <c r="B713">
-        <v>367.4916880354415</v>
+        <v>381.2858089372083</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>42244</v>
       </c>
       <c r="B714">
-        <v>-36.56075901963221</v>
+        <v>-36.55786345120316</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>42251</v>
       </c>
       <c r="B715">
-        <v>-58.54429401448166</v>
+        <v>-58.54417308062352</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>42258</v>
       </c>
       <c r="B716">
-        <v>-113.4777225590614</v>
+        <v>-113.4777225590615</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>42279</v>
       </c>
       <c r="B719">
-        <v>-74.43487789195723</v>
+        <v>-74.42692960878639</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>42300</v>
       </c>
       <c r="B722">
-        <v>303.0199020406982</v>
+        <v>303.0208978765082</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>42307</v>
       </c>
       <c r="B723">
-        <v>84.41815041439891</v>
+        <v>85.91582044972574</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>42314</v>
       </c>
       <c r="B724">
-        <v>111.5488929920274</v>
+        <v>112.4653621075352</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>42321</v>
       </c>
       <c r="B725">
-        <v>-389.1161646825349</v>
+        <v>-364.651727080533</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>42328</v>
       </c>
       <c r="B726">
-        <v>358.9813521470123</v>
+        <v>359.7891801340128</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>42335</v>
       </c>
       <c r="B727">
-        <v>2.113853673660604</v>
+        <v>1.315279360596394</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>42342</v>
       </c>
       <c r="B728">
-        <v>31.74421443219515</v>
+        <v>40.61121982252062</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>42349</v>
       </c>
       <c r="B729">
-        <v>-340.4375986763125</v>
+        <v>-362.6614276290536</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>42356</v>
       </c>
       <c r="B730">
-        <v>63.7243019361132</v>
+        <v>70.3881326916742</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>42363</v>
       </c>
       <c r="B731">
-        <v>-91.82600975059968</v>
+        <v>-92.27185687934495</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>42370</v>
       </c>
       <c r="B732">
-        <v>113.7127632706025</v>
+        <v>111.920054668527</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>42377</v>
       </c>
       <c r="B733">
-        <v>-63.64202050819624</v>
+        <v>-71.40457444404544</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>42384</v>
       </c>
       <c r="B734">
-        <v>-26.0250576207727</v>
+        <v>-32.94984884072197</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>42391</v>
       </c>
       <c r="B735">
-        <v>26.11580664915662</v>
+        <v>26.11743074258737</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>42398</v>
       </c>
       <c r="B736">
-        <v>-140.7957024301055</v>
+        <v>-140.8022396172789</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>42405</v>
       </c>
       <c r="B737">
-        <v>-26.64984030300979</v>
+        <v>-26.64198865824905</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6303,7 +6303,7 @@
         <v>42426</v>
       </c>
       <c r="B740">
-        <v>190.4200168211593</v>
+        <v>184.7773835923192</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6311,7 +6311,7 @@
         <v>42433</v>
       </c>
       <c r="B741">
-        <v>156.379115184835</v>
+        <v>158.4562665201466</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>42440</v>
       </c>
       <c r="B742">
-        <v>214.3031663188682</v>
+        <v>211.2728632885652</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>42447</v>
       </c>
       <c r="B743">
-        <v>63.27205500400219</v>
+        <v>65.62499618047278</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>42454</v>
       </c>
       <c r="B744">
-        <v>-172.1278952873271</v>
+        <v>-169.7182567331103</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>42461</v>
       </c>
       <c r="B745">
-        <v>95.37553958967567</v>
+        <v>99.70311920087161</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>42468</v>
       </c>
       <c r="B746">
-        <v>25.57235170836165</v>
+        <v>25.57735799106274</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>42475</v>
       </c>
       <c r="B747">
-        <v>-40.07631295088422</v>
+        <v>-40.07339699623722</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>42482</v>
       </c>
       <c r="B748">
-        <v>-66.94594177752089</v>
+        <v>-66.95505957994794</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>42489</v>
       </c>
       <c r="B749">
-        <v>-194.7828101040796</v>
+        <v>-194.7674303072675</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>42496</v>
       </c>
       <c r="B750">
-        <v>51.81073882112257</v>
+        <v>51.79281399303339</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6391,7 +6391,7 @@
         <v>42503</v>
       </c>
       <c r="B751">
-        <v>51.69171486597243</v>
+        <v>51.70452294199026</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>42510</v>
       </c>
       <c r="B752">
-        <v>-137.172090211047</v>
+        <v>-137.1722956545343</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>42517</v>
       </c>
       <c r="B753">
-        <v>-151.016765068386</v>
+        <v>-151.0191534845675</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>42531</v>
       </c>
       <c r="B755">
-        <v>65.51982836110012</v>
+        <v>49.36020537819701</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>42538</v>
       </c>
       <c r="B756">
-        <v>-0.4252299726837099</v>
+        <v>-3.271674682938667</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>42545</v>
       </c>
       <c r="B757">
-        <v>-126.9406344979114</v>
+        <v>-136.2243530653485</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>42552</v>
       </c>
       <c r="B758">
-        <v>284.8797517815289</v>
+        <v>293.0217468585803</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>42559</v>
       </c>
       <c r="B759">
-        <v>183.695926869613</v>
+        <v>181.0817277416985</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>42566</v>
       </c>
       <c r="B760">
-        <v>255.6935085525967</v>
+        <v>251.5465450745248</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>42573</v>
       </c>
       <c r="B761">
-        <v>341.4220589122357</v>
+        <v>340.245151723068</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>42580</v>
       </c>
       <c r="B762">
-        <v>7.997359786775728</v>
+        <v>4.598273871162443</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6487,7 +6487,7 @@
         <v>42587</v>
       </c>
       <c r="B763">
-        <v>515.3162565869578</v>
+        <v>515.2958326753094</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>42594</v>
       </c>
       <c r="B764">
-        <v>97.94897948041867</v>
+        <v>100.9589629748361</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>42601</v>
       </c>
       <c r="B765">
-        <v>362.460522662006</v>
+        <v>373.9770954364974</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>42608</v>
       </c>
       <c r="B766">
-        <v>261.2355593800962</v>
+        <v>301.3558848738949</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>42615</v>
       </c>
       <c r="B767">
-        <v>-81.11747598741177</v>
+        <v>-87.15368755634466</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6527,7 +6527,7 @@
         <v>42622</v>
       </c>
       <c r="B768">
-        <v>797.7568409547408</v>
+        <v>888.1505651527369</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>42629</v>
       </c>
       <c r="B769">
-        <v>-620.8419112477735</v>
+        <v>-703.734814771155</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>42636</v>
       </c>
       <c r="B770">
-        <v>658.336332609879</v>
+        <v>748.3509643896058</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>42643</v>
       </c>
       <c r="B771">
-        <v>-160.427737441232</v>
+        <v>-180.5756423826791</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6559,7 +6559,7 @@
         <v>42650</v>
       </c>
       <c r="B772">
-        <v>251.6108865552982</v>
+        <v>274.1962510202101</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6567,7 +6567,7 @@
         <v>42657</v>
       </c>
       <c r="B773">
-        <v>-918.434475936945</v>
+        <v>-1031.180693580788</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>42664</v>
       </c>
       <c r="B774">
-        <v>555.1648847804361</v>
+        <v>614.1438081410835</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>42671</v>
       </c>
       <c r="B775">
-        <v>-34.6700761934222</v>
+        <v>-47.45098063325914</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>42678</v>
       </c>
       <c r="B776">
-        <v>-402.6754871833821</v>
+        <v>-459.1805770508084</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>42685</v>
       </c>
       <c r="B777">
-        <v>169.0166925907543</v>
+        <v>187.8746321053257</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>42692</v>
       </c>
       <c r="B778">
-        <v>288.924835870662</v>
+        <v>303.0898293046056</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>42699</v>
       </c>
       <c r="B779">
-        <v>80.75513051712284</v>
+        <v>87.23149542408306</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>42706</v>
       </c>
       <c r="B780">
-        <v>374.0405776282781</v>
+        <v>410.4676844754637</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>42713</v>
       </c>
       <c r="B781">
-        <v>79.40099319926162</v>
+        <v>81.50726636952024</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>42720</v>
       </c>
       <c r="B782">
-        <v>335.4335793074591</v>
+        <v>345.1239631312635</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>42727</v>
       </c>
       <c r="B783">
-        <v>-654.945057236841</v>
+        <v>-700.4185994490036</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>42734</v>
       </c>
       <c r="B784">
-        <v>306.656617245438</v>
+        <v>312.1672514498316</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>42741</v>
       </c>
       <c r="B785">
-        <v>434.8142788418235</v>
+        <v>451.6823833893297</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>42748</v>
       </c>
       <c r="B786">
-        <v>-71.03005447655579</v>
+        <v>-56.1682878283142</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>42755</v>
       </c>
       <c r="B787">
-        <v>102.7325095599741</v>
+        <v>109.8276857729332</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6687,7 +6687,7 @@
         <v>42762</v>
       </c>
       <c r="B788">
-        <v>81.48010323030999</v>
+        <v>86.14760671806771</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>42769</v>
       </c>
       <c r="B789">
-        <v>404.5836381451764</v>
+        <v>442.0864109394092</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>42776</v>
       </c>
       <c r="B790">
-        <v>302.8758779057056</v>
+        <v>314.4583240526915</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>42783</v>
       </c>
       <c r="B791">
-        <v>403.3528502226883</v>
+        <v>420.9255895475146</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>42790</v>
       </c>
       <c r="B792">
-        <v>411.9660765689476</v>
+        <v>361.9810803693281</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6727,7 +6727,7 @@
         <v>42797</v>
       </c>
       <c r="B793">
-        <v>50.98586617746523</v>
+        <v>84.64970072525114</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>42804</v>
       </c>
       <c r="B794">
-        <v>-11.76041626615684</v>
+        <v>-10.9076724651689</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>42811</v>
       </c>
       <c r="B795">
-        <v>779.7912977850438</v>
+        <v>856.1728327189039</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>42818</v>
       </c>
       <c r="B796">
-        <v>54.64320877252127</v>
+        <v>58.62388556716761</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6759,7 +6759,7 @@
         <v>42825</v>
       </c>
       <c r="B797">
-        <v>-306.1575668033379</v>
+        <v>-364.0105951352947</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>42832</v>
       </c>
       <c r="B798">
-        <v>246.3551143274949</v>
+        <v>283.5764809734354</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>42839</v>
       </c>
       <c r="B799">
-        <v>-803.2058806041676</v>
+        <v>-910.5845705258555</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>42846</v>
       </c>
       <c r="B800">
-        <v>139.7306477133315</v>
+        <v>144.7234161007259</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>42853</v>
       </c>
       <c r="B801">
-        <v>307.0163532433249</v>
+        <v>336.8502509979183</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6799,7 +6799,7 @@
         <v>42860</v>
       </c>
       <c r="B802">
-        <v>100.6830744702828</v>
+        <v>115.784606833891</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>42867</v>
       </c>
       <c r="B803">
-        <v>64.21257215323611</v>
+        <v>68.35863117779932</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>42874</v>
       </c>
       <c r="B804">
-        <v>22.57619323248904</v>
+        <v>35.1566427393083</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>42881</v>
       </c>
       <c r="B805">
-        <v>255.8272510607422</v>
+        <v>293.3564674555437</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>42888</v>
       </c>
       <c r="B806">
-        <v>110.1940923555392</v>
+        <v>109.9019611554816</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>42895</v>
       </c>
       <c r="B807">
-        <v>26.22354338268052</v>
+        <v>22.09651122870086</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>42902</v>
       </c>
       <c r="B808">
-        <v>-231.4714794118216</v>
+        <v>-242.7872963482021</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>42909</v>
       </c>
       <c r="B809">
-        <v>168.8383200692151</v>
+        <v>167.3376184477832</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>42916</v>
       </c>
       <c r="B810">
-        <v>108.1810045824753</v>
+        <v>109.8646829648391</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6871,7 +6871,7 @@
         <v>42923</v>
       </c>
       <c r="B811">
-        <v>32.34119457833464</v>
+        <v>30.51054982514013</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6879,7 +6879,7 @@
         <v>42930</v>
       </c>
       <c r="B812">
-        <v>145.4645390876148</v>
+        <v>152.8850018728532</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>42937</v>
       </c>
       <c r="B813">
-        <v>186.2011970634652</v>
+        <v>210.9591626920125</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>42944</v>
       </c>
       <c r="B814">
-        <v>76.68195198216242</v>
+        <v>76.97581692500627</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>42951</v>
       </c>
       <c r="B815">
-        <v>182.5517228119699</v>
+        <v>202.8280073970979</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>42958</v>
       </c>
       <c r="B816">
-        <v>-132.5755368589992</v>
+        <v>-143.1783354480363</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>42965</v>
       </c>
       <c r="B817">
-        <v>79.78655498375532</v>
+        <v>92.21837771047603</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>42972</v>
       </c>
       <c r="B818">
-        <v>264.188370396725</v>
+        <v>299.9653777177679</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>42979</v>
       </c>
       <c r="B819">
-        <v>184.6420719835695</v>
+        <v>224.261536964623</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>42986</v>
       </c>
       <c r="B820">
-        <v>90.11182261090482</v>
+        <v>101.2305659944584</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>42993</v>
       </c>
       <c r="B821">
-        <v>-99.21766150318977</v>
+        <v>-95.03113393812923</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>43000</v>
       </c>
       <c r="B822">
-        <v>-79.66269624316887</v>
+        <v>-93.02496726643288</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>43007</v>
       </c>
       <c r="B823">
-        <v>-52.45104566202905</v>
+        <v>-55.79306887190467</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6975,7 +6975,7 @@
         <v>43014</v>
       </c>
       <c r="B824">
-        <v>125.7336215602217</v>
+        <v>136.5303659441515</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>43021</v>
       </c>
       <c r="B825">
-        <v>85.19325300844956</v>
+        <v>91.35362368365919</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>43028</v>
       </c>
       <c r="B826">
-        <v>-27.31923526464348</v>
+        <v>-27.37411169256224</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6999,7 +6999,7 @@
         <v>43035</v>
       </c>
       <c r="B827">
-        <v>-135.8848882693733</v>
+        <v>-149.0233935137337</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>43042</v>
       </c>
       <c r="B828">
-        <v>49.56950694138595</v>
+        <v>46.4343788361502</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>43049</v>
       </c>
       <c r="B829">
-        <v>15.6967304548612</v>
+        <v>17.95257344742929</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>43056</v>
       </c>
       <c r="B830">
-        <v>78.277307123394</v>
+        <v>86.76889670748253</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>43063</v>
       </c>
       <c r="B831">
-        <v>99.9999056963984</v>
+        <v>105.5922025569411</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>43070</v>
       </c>
       <c r="B832">
-        <v>-121.0382341925001</v>
+        <v>-116.6140054597761</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>43077</v>
       </c>
       <c r="B833">
-        <v>-110.9292009903619</v>
+        <v>-109.8212911648438</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>43084</v>
       </c>
       <c r="B834">
-        <v>-16.60002808909163</v>
+        <v>-2.094292971196467</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7063,7 +7063,7 @@
         <v>43091</v>
       </c>
       <c r="B835">
-        <v>164.7266305303817</v>
+        <v>179.5168929806174</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>43098</v>
       </c>
       <c r="B836">
-        <v>63.04656079336925</v>
+        <v>72.20989064895517</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7079,7 +7079,7 @@
         <v>43105</v>
       </c>
       <c r="B837">
-        <v>314.295897542124</v>
+        <v>326.0496889179398</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>43112</v>
       </c>
       <c r="B838">
-        <v>-32.27955898107981</v>
+        <v>-30.22402900555277</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7095,7 +7095,7 @@
         <v>43119</v>
       </c>
       <c r="B839">
-        <v>6.189064528155432</v>
+        <v>15.4179163334968</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>43126</v>
       </c>
       <c r="B840">
-        <v>-31.53585006155004</v>
+        <v>-32.36737453295111</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>43133</v>
       </c>
       <c r="B841">
-        <v>-22.36314085981305</v>
+        <v>-22.45847908198068</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>43140</v>
       </c>
       <c r="B842">
-        <v>-123.9229352572474</v>
+        <v>-136.7614911759324</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>43147</v>
       </c>
       <c r="B843">
-        <v>-9.044516269197949</v>
+        <v>-5.24300441228365</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>43154</v>
       </c>
       <c r="B844">
-        <v>-23.24503415254942</v>
+        <v>-3.088802367370427</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7143,7 +7143,7 @@
         <v>43161</v>
       </c>
       <c r="B845">
-        <v>105.6465201497539</v>
+        <v>111.3403575093675</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>43168</v>
       </c>
       <c r="B846">
-        <v>115.3504459919469</v>
+        <v>120.5946849341058</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>43175</v>
       </c>
       <c r="B847">
-        <v>164.0781561651875</v>
+        <v>185.7603445903383</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>43182</v>
       </c>
       <c r="B848">
-        <v>35.09336262925996</v>
+        <v>13.49740472454071</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>43189</v>
       </c>
       <c r="B849">
-        <v>265.5015406359847</v>
+        <v>287.0163247649542</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>43196</v>
       </c>
       <c r="B850">
-        <v>213.612525084002</v>
+        <v>212.5101529073974</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>43203</v>
       </c>
       <c r="B851">
-        <v>179.9023334220438</v>
+        <v>202.6567204004703</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>43210</v>
       </c>
       <c r="B852">
-        <v>356.7956276714394</v>
+        <v>387.8734532954077</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>43217</v>
       </c>
       <c r="B853">
-        <v>-119.8668755475828</v>
+        <v>-137.7897202699864</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>43224</v>
       </c>
       <c r="B854">
-        <v>-98.42884296743844</v>
+        <v>-114.779184248893</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>43231</v>
       </c>
       <c r="B855">
-        <v>179.8033050995413</v>
+        <v>172.7383129307424</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7231,7 +7231,7 @@
         <v>43238</v>
       </c>
       <c r="B856">
-        <v>192.8709553452872</v>
+        <v>206.7021262403912</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>43245</v>
       </c>
       <c r="B857">
-        <v>56.79478157519271</v>
+        <v>53.26509692133168</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>43252</v>
       </c>
       <c r="B858">
-        <v>107.6076842187447</v>
+        <v>134.1540107301724</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>43259</v>
       </c>
       <c r="B859">
-        <v>282.1882043269026</v>
+        <v>307.7423862720877</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>43266</v>
       </c>
       <c r="B860">
-        <v>71.54340376947314</v>
+        <v>59.65421780947246</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>43273</v>
       </c>
       <c r="B861">
-        <v>-364.3191969092903</v>
+        <v>-375.0408373585496</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7279,7 +7279,7 @@
         <v>43280</v>
       </c>
       <c r="B862">
-        <v>140.9902938743012</v>
+        <v>141.4514200174857</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7287,7 +7287,7 @@
         <v>43287</v>
       </c>
       <c r="B863">
-        <v>-17.48900485268165</v>
+        <v>-24.5042413197064</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7295,7 +7295,7 @@
         <v>43294</v>
       </c>
       <c r="B864">
-        <v>-35.57203918558756</v>
+        <v>-15.25986480570121</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7303,7 +7303,7 @@
         <v>43301</v>
       </c>
       <c r="B865">
-        <v>-322.7437444641167</v>
+        <v>-314.9935543767211</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>43308</v>
       </c>
       <c r="B866">
-        <v>283.2244916893208</v>
+        <v>299.1437408089095</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>43315</v>
       </c>
       <c r="B867">
-        <v>-262.4932224519514</v>
+        <v>-272.3647021024584</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>43322</v>
       </c>
       <c r="B868">
-        <v>-91.65723685129291</v>
+        <v>-90.3729387777982</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>43329</v>
       </c>
       <c r="B869">
-        <v>203.4119438261294</v>
+        <v>207.4045343289587</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>43336</v>
       </c>
       <c r="B870">
-        <v>-26.2259353229866</v>
+        <v>-21.57600984120305</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>43343</v>
       </c>
       <c r="B871">
-        <v>-33.10814633517918</v>
+        <v>3.114723467556482</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>43350</v>
       </c>
       <c r="B872">
-        <v>-90.6836956292036</v>
+        <v>-132.4442165376424</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>43357</v>
       </c>
       <c r="B873">
-        <v>220.710012927413</v>
+        <v>239.9078716284073</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>43364</v>
       </c>
       <c r="B874">
-        <v>59.89381699707387</v>
+        <v>58.43086234852727</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>43371</v>
       </c>
       <c r="B875">
-        <v>-88.13094229880311</v>
+        <v>-93.2574485892643</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7391,7 +7391,7 @@
         <v>43378</v>
       </c>
       <c r="B876">
-        <v>77.56107513794731</v>
+        <v>71.16352365724259</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>43385</v>
       </c>
       <c r="B877">
-        <v>90.92239995154083</v>
+        <v>63.50417761731298</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>43392</v>
       </c>
       <c r="B878">
-        <v>-41.11193978983064</v>
+        <v>-44.85979570749787</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>43420</v>
       </c>
       <c r="B882">
-        <v>50.80374029979856</v>
+        <v>50.80523383470084</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>43427</v>
       </c>
       <c r="B883">
-        <v>-29.52608376348137</v>
+        <v>-29.52891526344182</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>43434</v>
       </c>
       <c r="B884">
-        <v>-221.3566911634632</v>
+        <v>-221.3561856149844</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>43441</v>
       </c>
       <c r="B885">
-        <v>-16.05934699322547</v>
+        <v>-16.06084223583298</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>43448</v>
       </c>
       <c r="B886">
-        <v>80.80418103169663</v>
+        <v>80.80687121506584</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>43462</v>
       </c>
       <c r="B888">
-        <v>70.08627317654583</v>
+        <v>68.82045039173568</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>43469</v>
       </c>
       <c r="B889">
-        <v>129.1072203465385</v>
+        <v>125.580899071673</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>43476</v>
       </c>
       <c r="B890">
-        <v>-259.4818006437796</v>
+        <v>-252.1758610854096</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7511,7 +7511,7 @@
         <v>43483</v>
       </c>
       <c r="B891">
-        <v>-32.01198139917489</v>
+        <v>-25.97107863755928</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>43518</v>
       </c>
       <c r="B896">
-        <v>252.0943283046528</v>
+        <v>242.3417809975203</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7559,7 +7559,7 @@
         <v>43525</v>
       </c>
       <c r="B897">
-        <v>41.55093182135141</v>
+        <v>40.88780184787661</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7567,7 +7567,7 @@
         <v>43532</v>
       </c>
       <c r="B898">
-        <v>215.727698516757</v>
+        <v>215.3290067649286</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7575,7 +7575,7 @@
         <v>43539</v>
       </c>
       <c r="B899">
-        <v>317.5226506996667</v>
+        <v>315.5565758420513</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7583,7 +7583,7 @@
         <v>43546</v>
       </c>
       <c r="B900">
-        <v>210.1564157718051</v>
+        <v>203.2047312980563</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>43553</v>
       </c>
       <c r="B901">
-        <v>232.1443664383127</v>
+        <v>232.5411238190101</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7599,7 +7599,7 @@
         <v>43560</v>
       </c>
       <c r="B902">
-        <v>311.4243627158505</v>
+        <v>307.0450486225687</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7607,7 +7607,7 @@
         <v>43567</v>
       </c>
       <c r="B903">
-        <v>62.06658329293315</v>
+        <v>60.84381418394988</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>43574</v>
       </c>
       <c r="B904">
-        <v>75.53646974670006</v>
+        <v>69.51816347079793</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>43581</v>
       </c>
       <c r="B905">
-        <v>18.38342593048101</v>
+        <v>7.921111681454914</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>43588</v>
       </c>
       <c r="B906">
-        <v>237.0428204203813</v>
+        <v>237.0453563009927</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7655,7 +7655,7 @@
         <v>43609</v>
       </c>
       <c r="B909">
-        <v>202.841659454835</v>
+        <v>202.8416594548351</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>43623</v>
       </c>
       <c r="B911">
-        <v>-29.36907871269196</v>
+        <v>-29.33360361222431</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>43630</v>
       </c>
       <c r="B912">
-        <v>36.67565933155851</v>
+        <v>36.68033067221154</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>43637</v>
       </c>
       <c r="B913">
-        <v>77.20415624552258</v>
+        <v>77.1918630503274</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>43672</v>
       </c>
       <c r="B918">
-        <v>279.3803803476164</v>
+        <v>280.2571664682414</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7735,7 +7735,7 @@
         <v>43679</v>
       </c>
       <c r="B919">
-        <v>-322.0687073640499</v>
+        <v>-314.274589716991</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>43686</v>
       </c>
       <c r="B920">
-        <v>295.8050839130539</v>
+        <v>295.8005907752476</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7751,7 +7751,7 @@
         <v>43693</v>
       </c>
       <c r="B921">
-        <v>71.03363823022366</v>
+        <v>71.03676711345955</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7759,7 +7759,7 @@
         <v>43700</v>
       </c>
       <c r="B922">
-        <v>-8.901965278100089</v>
+        <v>-8.901212770600846</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>43707</v>
       </c>
       <c r="B923">
-        <v>218.0578734981588</v>
+        <v>218.058282414148</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7775,7 +7775,7 @@
         <v>43714</v>
       </c>
       <c r="B924">
-        <v>244.8178642712054</v>
+        <v>244.8142585662286</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>43749</v>
       </c>
       <c r="B929">
-        <v>0.2161949764810638</v>
+        <v>0.2161949764810567</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7839,7 +7839,7 @@
         <v>43770</v>
       </c>
       <c r="B932">
-        <v>178.7428913307117</v>
+        <v>174.5880805066209</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>43777</v>
       </c>
       <c r="B933">
-        <v>71.2223273130106</v>
+        <v>73.57210832579918</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>43784</v>
       </c>
       <c r="B934">
-        <v>4.591515222693812</v>
+        <v>2.241807213624599</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>43791</v>
       </c>
       <c r="B935">
-        <v>186.9835801512839</v>
+        <v>197.3707055510691</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>43798</v>
       </c>
       <c r="B936">
-        <v>69.04551867277648</v>
+        <v>63.60947887694704</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>43805</v>
       </c>
       <c r="B937">
-        <v>55.63078120894197</v>
+        <v>62.3008836968236</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7887,7 +7887,7 @@
         <v>43812</v>
       </c>
       <c r="B938">
-        <v>51.34523436482674</v>
+        <v>58.21749358537595</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7895,7 +7895,7 @@
         <v>43819</v>
       </c>
       <c r="B939">
-        <v>65.56891546479744</v>
+        <v>91.75470474100283</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7903,7 +7903,7 @@
         <v>43826</v>
       </c>
       <c r="B940">
-        <v>171.8907599576859</v>
+        <v>184.0219866105568</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>43833</v>
       </c>
       <c r="B941">
-        <v>102.9684100299143</v>
+        <v>130.3034729576212</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7919,7 +7919,7 @@
         <v>43840</v>
       </c>
       <c r="B942">
-        <v>-99.15873667526367</v>
+        <v>-96.29949245542878</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7927,7 +7927,7 @@
         <v>43847</v>
       </c>
       <c r="B943">
-        <v>248.8827716409735</v>
+        <v>253.35492420088</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>43854</v>
       </c>
       <c r="B944">
-        <v>96.83350359498549</v>
+        <v>103.4833628226694</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7943,7 +7943,7 @@
         <v>43861</v>
       </c>
       <c r="B945">
-        <v>-536.5564047309326</v>
+        <v>-569.7586039185298</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>43868</v>
       </c>
       <c r="B946">
-        <v>-65.92324633748031</v>
+        <v>-71.0229388785783</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>43875</v>
       </c>
       <c r="B947">
-        <v>-20.90393518497262</v>
+        <v>-16.31922335084634</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>43882</v>
       </c>
       <c r="B948">
-        <v>-87.0894981062943</v>
+        <v>-72.77252146487174</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7975,7 +7975,7 @@
         <v>43889</v>
       </c>
       <c r="B949">
-        <v>-12.53489072442777</v>
+        <v>-34.68403645282513</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>43896</v>
       </c>
       <c r="B950">
-        <v>-22.03246458832333</v>
+        <v>-2.575627774698276</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>43903</v>
       </c>
       <c r="B951">
-        <v>186.4853218879802</v>
+        <v>106.9582268836947</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>43910</v>
       </c>
       <c r="B952">
-        <v>337.3573934840878</v>
+        <v>307.863645307272</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>43917</v>
       </c>
       <c r="B953">
-        <v>-141.7461903757047</v>
+        <v>-136.4650768385868</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>43924</v>
       </c>
       <c r="B954">
-        <v>-27.85278492741839</v>
+        <v>-23.33538181707527</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>43931</v>
       </c>
       <c r="B955">
-        <v>-106.9732324774148</v>
+        <v>-97.21547834565114</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>43938</v>
       </c>
       <c r="B956">
-        <v>163.9061391152434</v>
+        <v>164.3512991834382</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>43945</v>
       </c>
       <c r="B957">
-        <v>127.0890539188279</v>
+        <v>136.5990051017044</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8047,7 +8047,7 @@
         <v>43952</v>
       </c>
       <c r="B958">
-        <v>341.5561180078833</v>
+        <v>343.0626647818224</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8055,7 +8055,7 @@
         <v>43959</v>
       </c>
       <c r="B959">
-        <v>418.6563456163032</v>
+        <v>419.6364374999173</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>43966</v>
       </c>
       <c r="B960">
-        <v>-129.1117923841346</v>
+        <v>-128.8114018764746</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>43973</v>
       </c>
       <c r="B961">
-        <v>315.609567535061</v>
+        <v>312.5116278515735</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>43980</v>
       </c>
       <c r="B962">
-        <v>315.0569199033235</v>
+        <v>315.0580384475581</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>43987</v>
       </c>
       <c r="B963">
-        <v>594.3808894779104</v>
+        <v>594.3779152050273</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>43994</v>
       </c>
       <c r="B964">
-        <v>-540.246509593733</v>
+        <v>-564.6968844353436</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>44001</v>
       </c>
       <c r="B965">
-        <v>1022.365206351327</v>
+        <v>1048.826599744184</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>44008</v>
       </c>
       <c r="B966">
-        <v>106.0630497793936</v>
+        <v>108.0640468365088</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>44015</v>
       </c>
       <c r="B967">
-        <v>997.0757921406974</v>
+        <v>1026.644074214119</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8127,7 +8127,7 @@
         <v>44022</v>
       </c>
       <c r="B968">
-        <v>745.9043930946489</v>
+        <v>764.5334320631067</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8135,7 +8135,7 @@
         <v>44029</v>
       </c>
       <c r="B969">
-        <v>-430.7924598443343</v>
+        <v>-459.1979967754625</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8143,7 +8143,7 @@
         <v>44036</v>
       </c>
       <c r="B970">
-        <v>198.6251386450402</v>
+        <v>218.1376583012311</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>44043</v>
       </c>
       <c r="B971">
-        <v>188.4992840678859</v>
+        <v>204.84861454802</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8159,7 +8159,7 @@
         <v>44050</v>
       </c>
       <c r="B972">
-        <v>694.4567350285528</v>
+        <v>743.6454190572632</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8167,7 +8167,7 @@
         <v>44057</v>
       </c>
       <c r="B973">
-        <v>185.9431103078298</v>
+        <v>199.7353064366866</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>44064</v>
       </c>
       <c r="B974">
-        <v>170.7691304340853</v>
+        <v>184.6895922538636</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>44071</v>
       </c>
       <c r="B975">
-        <v>788.6207726949874</v>
+        <v>836.1926875985135</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8191,7 +8191,7 @@
         <v>44078</v>
       </c>
       <c r="B976">
-        <v>518.2125600937512</v>
+        <v>583.3342388763191</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8199,7 +8199,7 @@
         <v>44085</v>
       </c>
       <c r="B977">
-        <v>-520.1583477557373</v>
+        <v>-577.6112366730293</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>44092</v>
       </c>
       <c r="B978">
-        <v>710.4401111422233</v>
+        <v>747.8009862670822</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>44099</v>
       </c>
       <c r="B979">
-        <v>-1795.520646128936</v>
+        <v>-1896.025411100175</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8223,7 +8223,7 @@
         <v>44106</v>
       </c>
       <c r="B980">
-        <v>324.3487000225587</v>
+        <v>335.6548619841452</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>44113</v>
       </c>
       <c r="B981">
-        <v>356.6465478769121</v>
+        <v>385.9199790020765</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>44120</v>
       </c>
       <c r="B982">
-        <v>-115.7199252560272</v>
+        <v>-108.3989739481649</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>44127</v>
       </c>
       <c r="B983">
-        <v>239.7312115160282</v>
+        <v>262.2637909172868</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>44134</v>
       </c>
       <c r="B984">
-        <v>-251.0669644534479</v>
+        <v>-276.0311256996122</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>44141</v>
       </c>
       <c r="B985">
-        <v>324.709156903673</v>
+        <v>338.0814295148493</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8271,7 +8271,7 @@
         <v>44148</v>
       </c>
       <c r="B986">
-        <v>360.2375829945044</v>
+        <v>398.9995606301713</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>44155</v>
       </c>
       <c r="B987">
-        <v>436.315472732877</v>
+        <v>466.3047753664036</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>44162</v>
       </c>
       <c r="B988">
-        <v>798.4635477124002</v>
+        <v>851.3561251085478</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>44169</v>
       </c>
       <c r="B989">
-        <v>414.2555218900694</v>
+        <v>447.2178880170597</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>44176</v>
       </c>
       <c r="B990">
-        <v>-170.1231242911956</v>
+        <v>-174.7699037535484</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>44183</v>
       </c>
       <c r="B991">
-        <v>547.3469620018118</v>
+        <v>579.0987788551943</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>44190</v>
       </c>
       <c r="B992">
-        <v>392.9862121831897</v>
+        <v>437.275246265651</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>44197</v>
       </c>
       <c r="B993">
-        <v>618.3467169346</v>
+        <v>674.5509939242562</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>44204</v>
       </c>
       <c r="B994">
-        <v>-220.1085859038126</v>
+        <v>-199.4401962782351</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8343,7 +8343,7 @@
         <v>44211</v>
       </c>
       <c r="B995">
-        <v>-729.7997897206715</v>
+        <v>-799.1270669092689</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>44218</v>
       </c>
       <c r="B996">
-        <v>-385.1397356750352</v>
+        <v>-394.5861364398248</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>44225</v>
       </c>
       <c r="B997">
-        <v>-311.8106293631034</v>
+        <v>-348.2073344651417</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>44232</v>
       </c>
       <c r="B998">
-        <v>243.472616117663</v>
+        <v>263.5246199273939</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>44253</v>
       </c>
       <c r="B1001">
-        <v>230.3253275734144</v>
+        <v>250.4327602063981</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8399,7 +8399,7 @@
         <v>44260</v>
       </c>
       <c r="B1002">
-        <v>-92.35641183949991</v>
+        <v>-71.43108308357442</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>44267</v>
       </c>
       <c r="B1003">
-        <v>446.1014699710295</v>
+        <v>460.7836538505329</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8415,7 +8415,7 @@
         <v>44274</v>
       </c>
       <c r="B1004">
-        <v>544.7852144961632</v>
+        <v>580.4717314836903</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8423,7 +8423,7 @@
         <v>44281</v>
       </c>
       <c r="B1005">
-        <v>337.3866722563787</v>
+        <v>336.5277366768148</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8431,7 +8431,7 @@
         <v>44288</v>
       </c>
       <c r="B1006">
-        <v>533.9676787717309</v>
+        <v>541.8884056890029</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>44295</v>
       </c>
       <c r="B1007">
-        <v>430.7208533833781</v>
+        <v>467.4796586623717</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>44302</v>
       </c>
       <c r="B1008">
-        <v>115.4157540016819</v>
+        <v>122.0798634336817</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8455,7 +8455,7 @@
         <v>44309</v>
       </c>
       <c r="B1009">
-        <v>186.2026924695263</v>
+        <v>220.2625157131345</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>44316</v>
       </c>
       <c r="B1010">
-        <v>429.742551142211</v>
+        <v>426.2064291523773</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8471,7 +8471,7 @@
         <v>44323</v>
       </c>
       <c r="B1011">
-        <v>-304.9545201211831</v>
+        <v>-356.735229988882</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8479,7 +8479,7 @@
         <v>44330</v>
       </c>
       <c r="B1012">
-        <v>-1045.805106859334</v>
+        <v>-1057.808909297838</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>44337</v>
       </c>
       <c r="B1013">
-        <v>348.6869757718595</v>
+        <v>349.6137095784857</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>44344</v>
       </c>
       <c r="B1014">
-        <v>252.4279602157437</v>
+        <v>251.5846307496918</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>44351</v>
       </c>
       <c r="B1015">
-        <v>293.447158890693</v>
+        <v>293.4416764468772</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>44358</v>
       </c>
       <c r="B1016">
-        <v>6.68954385947893</v>
+        <v>6.759711061673747</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>44365</v>
       </c>
       <c r="B1017">
-        <v>315.109709613894</v>
+        <v>315.1583620303645</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>44372</v>
       </c>
       <c r="B1018">
-        <v>290.7093957668674</v>
+        <v>302.8450330137502</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>44379</v>
       </c>
       <c r="B1019">
-        <v>382.7915411835609</v>
+        <v>378.5716313146466</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8543,7 +8543,7 @@
         <v>44386</v>
       </c>
       <c r="B1020">
-        <v>-23.01048055595466</v>
+        <v>-13.67173246009076</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>44393</v>
       </c>
       <c r="B1021">
-        <v>-150.9941156272606</v>
+        <v>-140.4092050814819</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>44400</v>
       </c>
       <c r="B1022">
-        <v>-39.69971884498906</v>
+        <v>-29.62539079171056</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>44407</v>
       </c>
       <c r="B1023">
-        <v>-219.3802327608234</v>
+        <v>-227.0555727019558</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>44414</v>
       </c>
       <c r="B1024">
-        <v>213.9337141778819</v>
+        <v>224.4533346831055</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>44421</v>
       </c>
       <c r="B1025">
-        <v>-187.3540742090708</v>
+        <v>-203.1075777370129</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>44428</v>
       </c>
       <c r="B1026">
-        <v>125.1032503714855</v>
+        <v>125.1031999769352</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>44435</v>
       </c>
       <c r="B1027">
-        <v>60.17170094906242</v>
+        <v>60.16706821803319</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>44442</v>
       </c>
       <c r="B1028">
-        <v>-162.4221058732745</v>
+        <v>-154.7414423062692</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>44449</v>
       </c>
       <c r="B1029">
-        <v>152.9757244050696</v>
+        <v>151.2799496351374</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>44456</v>
       </c>
       <c r="B1030">
-        <v>16.53457086133269</v>
+        <v>17.26605541607597</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>44463</v>
       </c>
       <c r="B1031">
-        <v>30.57361535563762</v>
+        <v>30.57403652522684</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>44470</v>
       </c>
       <c r="B1032">
-        <v>50.30993577114046</v>
+        <v>53.7346078458279</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8647,7 +8647,7 @@
         <v>44477</v>
       </c>
       <c r="B1033">
-        <v>-40.37373152021253</v>
+        <v>-30.10827756990229</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8655,7 +8655,7 @@
         <v>44484</v>
       </c>
       <c r="B1034">
-        <v>14.53130575235659</v>
+        <v>13.48642097920204</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>44491</v>
       </c>
       <c r="B1035">
-        <v>-103.4858163395773</v>
+        <v>-103.4806821577042</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8671,7 +8671,7 @@
         <v>44498</v>
       </c>
       <c r="B1036">
-        <v>-131.4259399315636</v>
+        <v>-132.7375886544718</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8679,7 +8679,7 @@
         <v>44505</v>
       </c>
       <c r="B1037">
-        <v>91.88689294494597</v>
+        <v>91.90047812134897</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>44512</v>
       </c>
       <c r="B1038">
-        <v>-78.71985415008191</v>
+        <v>-82.88803461198799</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>44519</v>
       </c>
       <c r="B1039">
-        <v>11.70793488984782</v>
+        <v>33.19687833034543</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8703,7 +8703,7 @@
         <v>44526</v>
       </c>
       <c r="B1040">
-        <v>-117.3244856708201</v>
+        <v>-121.7482199115493</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8711,7 +8711,7 @@
         <v>44533</v>
       </c>
       <c r="B1041">
-        <v>16.57901330569617</v>
+        <v>12.08627323052382</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>44540</v>
       </c>
       <c r="B1042">
-        <v>58.65930698875325</v>
+        <v>81.06645225787162</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>44547</v>
       </c>
       <c r="B1043">
-        <v>22.60366777304791</v>
+        <v>29.20552656779833</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>44554</v>
       </c>
       <c r="B1044">
-        <v>-65.84405756712447</v>
+        <v>-57.79209927993382</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>44561</v>
       </c>
       <c r="B1045">
-        <v>6.297716375756636</v>
+        <v>9.695773434497029</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>44568</v>
       </c>
       <c r="B1046">
-        <v>-43.471745271617</v>
+        <v>-36.03461142622355</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>44575</v>
       </c>
       <c r="B1047">
-        <v>-22.4498872322703</v>
+        <v>-46.16253537903266</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>44582</v>
       </c>
       <c r="B1048">
-        <v>-31.56142718188579</v>
+        <v>-41.1900567671828</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>44589</v>
       </c>
       <c r="B1049">
-        <v>112.1818822552811</v>
+        <v>105.4088303949805</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8791,7 +8791,7 @@
         <v>44603</v>
       </c>
       <c r="B1051">
-        <v>-277.9765965582687</v>
+        <v>-255.0197819409482</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>44610</v>
       </c>
       <c r="B1052">
-        <v>217.5771937270266</v>
+        <v>222.7572458516463</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>44617</v>
       </c>
       <c r="B1053">
-        <v>132.5816768275395</v>
+        <v>116.0875679212918</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>44624</v>
       </c>
       <c r="B1054">
-        <v>165.7099006684153</v>
+        <v>178.4616483616625</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>44631</v>
       </c>
       <c r="B1055">
-        <v>-100.8859678982448</v>
+        <v>-110.5744135795277</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>44638</v>
       </c>
       <c r="B1056">
-        <v>120.2489718254712</v>
+        <v>135.4994974196499</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8839,7 +8839,7 @@
         <v>44645</v>
       </c>
       <c r="B1057">
-        <v>264.9969127218975</v>
+        <v>278.5898519097192</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>44652</v>
       </c>
       <c r="B1058">
-        <v>49.20986438678517</v>
+        <v>48.88925590462498</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>44659</v>
       </c>
       <c r="B1059">
-        <v>222.9677929235538</v>
+        <v>224.2909864830471</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8863,7 +8863,7 @@
         <v>44666</v>
       </c>
       <c r="B1060">
-        <v>297.479033210449</v>
+        <v>308.3815561681977</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>44673</v>
       </c>
       <c r="B1061">
-        <v>186.6711686917171</v>
+        <v>173.5119986104664</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>44680</v>
       </c>
       <c r="B1062">
-        <v>79.58490490269443</v>
+        <v>22.21509164572795</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>44687</v>
       </c>
       <c r="B1063">
-        <v>-88.15283961631687</v>
+        <v>-75.1949365591843</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>44694</v>
       </c>
       <c r="B1064">
-        <v>-233.7404064261844</v>
+        <v>-249.3802133539887</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>44701</v>
       </c>
       <c r="B1065">
-        <v>-93.16458316778693</v>
+        <v>-90.74927467662741</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>44708</v>
       </c>
       <c r="B1066">
-        <v>36.73897028380187</v>
+        <v>40.59152927928949</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>44715</v>
       </c>
       <c r="B1067">
-        <v>-133.851937520973</v>
+        <v>-130.7545489202406</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>44722</v>
       </c>
       <c r="B1068">
-        <v>76.80935857571242</v>
+        <v>75.67315309746674</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>44729</v>
       </c>
       <c r="B1069">
-        <v>63.9079046322683</v>
+        <v>55.50011507566703</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>44736</v>
       </c>
       <c r="B1070">
-        <v>126.6645593144122</v>
+        <v>113.5963774962304</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>44743</v>
       </c>
       <c r="B1071">
-        <v>420.5192932431252</v>
+        <v>382.829323638262</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>44750</v>
       </c>
       <c r="B1072">
-        <v>-135.2666482897729</v>
+        <v>-127.776011585653</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -9143,7 +9143,7 @@
         <v>44911</v>
       </c>
       <c r="B1095">
-        <v>14.30964985240189</v>
+        <v>14.30964985240188</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>44988</v>
       </c>
       <c r="B1106">
-        <v>640.3486850128002</v>
+        <v>640.3484948099297</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>44995</v>
       </c>
       <c r="B1107">
-        <v>-248.8573520118896</v>
+        <v>-248.8702842799863</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9247,7 +9247,7 @@
         <v>45002</v>
       </c>
       <c r="B1108">
-        <v>21.11116756194129</v>
+        <v>21.12452287181706</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>45009</v>
       </c>
       <c r="B1109">
-        <v>805.7466705558743</v>
+        <v>805.7454253846026</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>45016</v>
       </c>
       <c r="B1110">
-        <v>136.5410528222126</v>
+        <v>136.5282527811202</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>45023</v>
       </c>
       <c r="B1111">
-        <v>271.0621884007731</v>
+        <v>271.0814876459547</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9279,7 +9279,7 @@
         <v>45030</v>
       </c>
       <c r="B1112">
-        <v>1132.202390494646</v>
+        <v>1132.182870243681</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>45037</v>
       </c>
       <c r="B1113">
-        <v>-871.1959970058485</v>
+        <v>-871.1832577584723</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>45044</v>
       </c>
       <c r="B1114">
-        <v>953.0437172224784</v>
+        <v>953.036806589684</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9303,7 +9303,7 @@
         <v>45051</v>
       </c>
       <c r="B1115">
-        <v>474.4536731655583</v>
+        <v>474.4720932886424</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9311,7 +9311,7 @@
         <v>45058</v>
       </c>
       <c r="B1116">
-        <v>-436.078978195793</v>
+        <v>-436.0844766907987</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>45065</v>
       </c>
       <c r="B1117">
-        <v>564.2827834494215</v>
+        <v>564.2762807436022</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>45072</v>
       </c>
       <c r="B1118">
-        <v>77.64411931592585</v>
+        <v>77.66278617933295</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9335,7 +9335,7 @@
         <v>45079</v>
       </c>
       <c r="B1119">
-        <v>1048.334530883024</v>
+        <v>1048.333824807691</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>45086</v>
       </c>
       <c r="B1120">
-        <v>693.7897766905272</v>
+        <v>693.7596252796154</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>45093</v>
       </c>
       <c r="B1121">
-        <v>309.1028657385723</v>
+        <v>309.1105066402915</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>45100</v>
       </c>
       <c r="B1122">
-        <v>325.1022731652785</v>
+        <v>325.0972490684471</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>45107</v>
       </c>
       <c r="B1123">
-        <v>-64.70821210931702</v>
+        <v>-64.73717979273128</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9375,7 +9375,7 @@
         <v>45114</v>
       </c>
       <c r="B1124">
-        <v>356.2918910765796</v>
+        <v>366.6073672311553</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>45121</v>
       </c>
       <c r="B1125">
-        <v>892.9066348574007</v>
+        <v>912.9939909826388</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>45128</v>
       </c>
       <c r="B1126">
-        <v>394.8373262492037</v>
+        <v>405.9663093415804</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>45135</v>
       </c>
       <c r="B1127">
-        <v>502.6638624317752</v>
+        <v>521.2401687130916</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>45142</v>
       </c>
       <c r="B1128">
-        <v>-673.5197038983431</v>
+        <v>-722.0482102876808</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>45149</v>
       </c>
       <c r="B1129">
-        <v>-377.4508641047252</v>
+        <v>-404.4947625257833</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>45156</v>
       </c>
       <c r="B1130">
-        <v>129.9509260847128</v>
+        <v>133.5066659311183</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>45163</v>
       </c>
       <c r="B1131">
-        <v>11.99890998368464</v>
+        <v>5.938321060436934</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9439,7 +9439,7 @@
         <v>45170</v>
       </c>
       <c r="B1132">
-        <v>-18.6972612765695</v>
+        <v>-1.078884984724336</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>45177</v>
       </c>
       <c r="B1133">
-        <v>57.08722537123315</v>
+        <v>72.24918790716642</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>45184</v>
       </c>
       <c r="B1134">
-        <v>193.7883044519723</v>
+        <v>241.6847159069148</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -9463,7 +9463,7 @@
         <v>45191</v>
       </c>
       <c r="B1135">
-        <v>-364.8850605653365</v>
+        <v>-395.6842836466371</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>45198</v>
       </c>
       <c r="B1136">
-        <v>135.7335719274349</v>
+        <v>144.6677127481156</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9479,7 +9479,7 @@
         <v>45205</v>
       </c>
       <c r="B1137">
-        <v>433.7798641245225</v>
+        <v>465.577649537472</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -9487,7 +9487,7 @@
         <v>45212</v>
       </c>
       <c r="B1138">
-        <v>-159.6684923841621</v>
+        <v>-166.7710521623513</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>45219</v>
       </c>
       <c r="B1139">
-        <v>-331.5505724371813</v>
+        <v>-356.606749253615</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>45226</v>
       </c>
       <c r="B1140">
-        <v>162.3486092542523</v>
+        <v>157.201378158158</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9511,7 +9511,7 @@
         <v>45233</v>
       </c>
       <c r="B1141">
-        <v>-87.86468852744048</v>
+        <v>-77.87045974570957</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>45240</v>
       </c>
       <c r="B1142">
-        <v>134.9190616835346</v>
+        <v>153.0107345298689</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>45247</v>
       </c>
       <c r="B1143">
-        <v>23.44482383814251</v>
+        <v>31.88746511579072</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>45254</v>
       </c>
       <c r="B1144">
-        <v>294.7401568263788</v>
+        <v>335.5485325594561</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9543,7 +9543,7 @@
         <v>45261</v>
       </c>
       <c r="B1145">
-        <v>225.1964504351256</v>
+        <v>236.1895356479009</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9551,7 +9551,15 @@
         <v>45268</v>
       </c>
       <c r="B1146">
-        <v>50.75900715137811</v>
+        <v>4.881574988411941</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2">
+      <c r="A1147" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B1147">
+        <v>126.7805249078727</v>
       </c>
     </row>
   </sheetData>
